--- a/Code/Results/Cases/Case_7_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_42/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.97573952108549</v>
+        <v>13.54885567310213</v>
       </c>
       <c r="C2">
-        <v>10.32331985682684</v>
+        <v>6.766372588563814</v>
       </c>
       <c r="D2">
-        <v>2.43671030598579</v>
+        <v>4.974969799319117</v>
       </c>
       <c r="E2">
-        <v>6.297303274043744</v>
+        <v>7.721573553427108</v>
       </c>
       <c r="F2">
-        <v>35.79462204786446</v>
+        <v>25.82636010150799</v>
       </c>
       <c r="G2">
-        <v>2.138582554536537</v>
+        <v>2.129433066273291</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.973474375058841</v>
+        <v>6.163449590458218</v>
       </c>
       <c r="K2">
-        <v>16.55387853156561</v>
+        <v>10.28628140263852</v>
       </c>
       <c r="L2">
-        <v>6.574407106068053</v>
+        <v>6.305410353335475</v>
       </c>
       <c r="M2">
-        <v>13.31008428266686</v>
+        <v>10.18847180586648</v>
       </c>
       <c r="N2">
-        <v>15.17437985499114</v>
+        <v>14.43493965730671</v>
       </c>
       <c r="O2">
-        <v>27.16689242572336</v>
+        <v>19.50804862556319</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.84282779760086</v>
+        <v>12.79902368536868</v>
       </c>
       <c r="C3">
-        <v>9.633524669212781</v>
+        <v>6.69340980059762</v>
       </c>
       <c r="D3">
-        <v>2.402013372603041</v>
+        <v>4.842282802440677</v>
       </c>
       <c r="E3">
-        <v>6.31837600179518</v>
+        <v>7.72890648093742</v>
       </c>
       <c r="F3">
-        <v>35.17430643914992</v>
+        <v>25.73039851518747</v>
       </c>
       <c r="G3">
-        <v>2.147246676158284</v>
+        <v>2.134009509463517</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.01474492651797</v>
+        <v>6.207176365987645</v>
       </c>
       <c r="K3">
-        <v>15.65508625788536</v>
+        <v>9.637930740645109</v>
       </c>
       <c r="L3">
-        <v>6.514853527839063</v>
+        <v>6.245821768361519</v>
       </c>
       <c r="M3">
-        <v>12.9004566712352</v>
+        <v>9.921720607719561</v>
       </c>
       <c r="N3">
-        <v>15.41073970447913</v>
+        <v>14.63316794122868</v>
       </c>
       <c r="O3">
-        <v>26.77612791200135</v>
+        <v>19.54864419140517</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.1271211689541</v>
+        <v>12.31999498546552</v>
       </c>
       <c r="C4">
-        <v>9.187648261281753</v>
+        <v>6.648292452761038</v>
       </c>
       <c r="D4">
-        <v>2.380992609578642</v>
+        <v>4.760628634503237</v>
       </c>
       <c r="E4">
-        <v>6.332211323078868</v>
+        <v>7.735956294219304</v>
       </c>
       <c r="F4">
-        <v>34.8172356983914</v>
+        <v>25.68768663616872</v>
       </c>
       <c r="G4">
-        <v>2.152713210134091</v>
+        <v>2.136914085031091</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.040762129274194</v>
+        <v>6.23500019394436</v>
       </c>
       <c r="K4">
-        <v>15.08710071876657</v>
+        <v>9.217173343071092</v>
       </c>
       <c r="L4">
-        <v>6.48077182277255</v>
+        <v>6.210936986581421</v>
       </c>
       <c r="M4">
-        <v>12.65005421218862</v>
+        <v>9.757825742461382</v>
       </c>
       <c r="N4">
-        <v>15.55931772895593</v>
+        <v>14.7577941238675</v>
       </c>
       <c r="O4">
-        <v>26.55547614453171</v>
+        <v>19.58528893301172</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.83072609025373</v>
+        <v>12.12029823370377</v>
       </c>
       <c r="C5">
-        <v>9.000287037989908</v>
+        <v>6.629832866612564</v>
       </c>
       <c r="D5">
-        <v>2.372487164884918</v>
+        <v>4.727354887980702</v>
       </c>
       <c r="E5">
-        <v>6.338072270438158</v>
+        <v>7.739460982794492</v>
       </c>
       <c r="F5">
-        <v>34.67764544430532</v>
+        <v>25.6742614118169</v>
       </c>
       <c r="G5">
-        <v>2.154979248567036</v>
+        <v>2.138121940562534</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.051540116572378</v>
+        <v>6.246586471655257</v>
       </c>
       <c r="K5">
-        <v>14.85183380100417</v>
+        <v>9.040011615437484</v>
       </c>
       <c r="L5">
-        <v>6.467505128597089</v>
+        <v>6.197156502459729</v>
       </c>
       <c r="M5">
-        <v>12.54841546140367</v>
+        <v>9.691101580164771</v>
       </c>
       <c r="N5">
-        <v>15.62075250031331</v>
+        <v>14.80933175133739</v>
       </c>
       <c r="O5">
-        <v>26.47030523411691</v>
+        <v>19.60307829849892</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.78123420310547</v>
+        <v>12.08687414913765</v>
       </c>
       <c r="C6">
-        <v>8.968832622268302</v>
+        <v>6.626763382862596</v>
       </c>
       <c r="D6">
-        <v>2.371078217339093</v>
+        <v>4.72183128620277</v>
       </c>
       <c r="E6">
-        <v>6.339058873834989</v>
+        <v>7.740080838845802</v>
       </c>
       <c r="F6">
-        <v>34.6548218829065</v>
+        <v>25.6722696716121</v>
       </c>
       <c r="G6">
-        <v>2.155357882432781</v>
+        <v>2.138323978848629</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.05334056563833</v>
+        <v>6.248525407353098</v>
       </c>
       <c r="K6">
-        <v>14.81254615226762</v>
+        <v>9.010249955013949</v>
       </c>
       <c r="L6">
-        <v>6.465339669289135</v>
+        <v>6.194894752057711</v>
       </c>
       <c r="M6">
-        <v>12.53156647132805</v>
+        <v>9.680028717838486</v>
       </c>
       <c r="N6">
-        <v>15.63100791226397</v>
+        <v>14.81793545948412</v>
       </c>
       <c r="O6">
-        <v>26.45644621300304</v>
+        <v>19.60620209706223</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.12314260411027</v>
+        <v>12.31731969161983</v>
       </c>
       <c r="C7">
-        <v>9.185144426838537</v>
+        <v>6.648043791444492</v>
       </c>
       <c r="D7">
-        <v>2.380877669705454</v>
+        <v>4.76017982524317</v>
       </c>
       <c r="E7">
-        <v>6.332289466268969</v>
+        <v>7.736001012953568</v>
       </c>
       <c r="F7">
-        <v>34.815329267002</v>
+        <v>25.68748959291527</v>
       </c>
       <c r="G7">
-        <v>2.152743613414689</v>
+        <v>2.136930275987381</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.040906766181915</v>
+        <v>6.235155443669478</v>
       </c>
       <c r="K7">
-        <v>15.08394288140352</v>
+        <v>9.214807150184495</v>
       </c>
       <c r="L7">
-        <v>6.480590389711415</v>
+        <v>6.210749366529172</v>
       </c>
       <c r="M7">
-        <v>12.64868167910806</v>
+        <v>9.756925492829879</v>
       </c>
       <c r="N7">
-        <v>15.56014263788825</v>
+        <v>14.75848611126722</v>
       </c>
       <c r="O7">
-        <v>26.55430842169532</v>
+        <v>19.58551740025531</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.58945003334843</v>
+        <v>13.29428543950706</v>
       </c>
       <c r="C8">
-        <v>10.09008544325883</v>
+        <v>6.741284548489164</v>
       </c>
       <c r="D8">
-        <v>2.424681337587029</v>
+        <v>4.929285134077385</v>
       </c>
       <c r="E8">
-        <v>6.304381455720081</v>
+        <v>7.723568002014004</v>
       </c>
       <c r="F8">
-        <v>35.57575914907556</v>
+        <v>25.78985229715327</v>
       </c>
       <c r="G8">
-        <v>2.14154041368337</v>
+        <v>2.130991645904869</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.987567407759999</v>
+        <v>6.178325703421879</v>
       </c>
       <c r="K8">
-        <v>16.24745275135002</v>
+        <v>10.06743259353985</v>
       </c>
       <c r="L8">
-        <v>6.55335580654944</v>
+        <v>6.284515279974729</v>
       </c>
       <c r="M8">
-        <v>13.16868526367846</v>
+        <v>10.09657226059235</v>
       </c>
       <c r="N8">
-        <v>15.25517232202614</v>
+        <v>14.50269576185734</v>
       </c>
       <c r="O8">
-        <v>27.02809673609344</v>
+        <v>19.51955902134274</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.29495124525809</v>
+        <v>15.05557736193352</v>
       </c>
       <c r="C9">
-        <v>11.68983190170077</v>
+        <v>6.921359046387233</v>
       </c>
       <c r="D9">
-        <v>2.513362450438041</v>
+        <v>5.257486993031955</v>
       </c>
       <c r="E9">
-        <v>6.256898706634577</v>
+        <v>7.719789989842532</v>
       </c>
       <c r="F9">
-        <v>37.25848920202509</v>
+        <v>26.12323209566251</v>
       </c>
       <c r="G9">
-        <v>2.120662933030538</v>
+        <v>2.120076694283815</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.888071618632007</v>
+        <v>6.074501942674109</v>
       </c>
       <c r="K9">
-        <v>18.39298036267784</v>
+        <v>11.559930703357</v>
       </c>
       <c r="L9">
-        <v>6.715879516866935</v>
+        <v>6.442339447792368</v>
       </c>
       <c r="M9">
-        <v>14.19233518983727</v>
+        <v>10.75795694007262</v>
       </c>
       <c r="N9">
-        <v>14.68360696022629</v>
+        <v>14.02330632638643</v>
       </c>
       <c r="O9">
-        <v>28.11440132910012</v>
+        <v>19.48728966562904</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.16927318573114</v>
+        <v>16.24860018530586</v>
       </c>
       <c r="C10">
-        <v>12.76241769149032</v>
+        <v>7.051669721526174</v>
       </c>
       <c r="D10">
-        <v>2.581056475144777</v>
+        <v>5.49411696144934</v>
       </c>
       <c r="E10">
-        <v>6.226643012126551</v>
+        <v>7.730111849602568</v>
       </c>
       <c r="F10">
-        <v>38.61510029930181</v>
+        <v>26.45419902779508</v>
       </c>
       <c r="G10">
-        <v>2.105880675884741</v>
+        <v>2.112473554935741</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.817679844967626</v>
+        <v>6.002694128064777</v>
       </c>
       <c r="K10">
-        <v>19.89537570828787</v>
+        <v>12.54795796243121</v>
       </c>
       <c r="L10">
-        <v>6.847547120397582</v>
+        <v>6.565834606829888</v>
       </c>
       <c r="M10">
-        <v>14.94116098616409</v>
+        <v>11.23632741705948</v>
       </c>
       <c r="N10">
-        <v>14.27856337625852</v>
+        <v>13.68331806900826</v>
       </c>
       <c r="O10">
-        <v>29.01396955463781</v>
+        <v>19.52841425377229</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.99631652037579</v>
+        <v>16.76849377542824</v>
       </c>
       <c r="C11">
-        <v>13.22902812603099</v>
+        <v>7.110464074165941</v>
       </c>
       <c r="D11">
-        <v>2.612622450622872</v>
+        <v>5.600339433374596</v>
       </c>
       <c r="E11">
-        <v>6.2139424300804</v>
+        <v>7.737766682919569</v>
       </c>
       <c r="F11">
-        <v>39.25921746402183</v>
+        <v>26.62444352145377</v>
       </c>
       <c r="G11">
-        <v>2.099249858530032</v>
+        <v>2.109098226730037</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.786147376782034</v>
+        <v>5.97095883950712</v>
       </c>
       <c r="K11">
-        <v>20.64944792101405</v>
+        <v>12.9741626833376</v>
       </c>
       <c r="L11">
-        <v>6.910151557275817</v>
+        <v>6.623543165299553</v>
       </c>
       <c r="M11">
-        <v>15.28020961878166</v>
+        <v>11.45143706479979</v>
       </c>
       <c r="N11">
-        <v>14.09726969305971</v>
+        <v>13.53099390773904</v>
       </c>
       <c r="O11">
-        <v>29.44645341197434</v>
+        <v>19.56242353618358</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.30579109172026</v>
+        <v>16.96203301287114</v>
       </c>
       <c r="C12">
-        <v>13.40274621271771</v>
+        <v>7.132654124393553</v>
       </c>
       <c r="D12">
-        <v>2.624707602207899</v>
+        <v>5.640325645600958</v>
       </c>
       <c r="E12">
-        <v>6.209291776542466</v>
+        <v>7.7411002856796</v>
       </c>
       <c r="F12">
-        <v>39.50708944144305</v>
+        <v>26.69181529876</v>
       </c>
       <c r="G12">
-        <v>2.096749955355586</v>
+        <v>2.107831480378564</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.774268401987563</v>
+        <v>5.959072087446515</v>
       </c>
       <c r="K12">
-        <v>20.93014496616843</v>
+        <v>13.13223864141312</v>
       </c>
       <c r="L12">
-        <v>6.934251781125153</v>
+        <v>6.645606288574771</v>
       </c>
       <c r="M12">
-        <v>15.40831403338716</v>
+        <v>11.53246934535599</v>
       </c>
       <c r="N12">
-        <v>14.02902510109637</v>
+        <v>13.47362241359557</v>
       </c>
       <c r="O12">
-        <v>29.61367481324607</v>
+        <v>19.5776029439038</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.23930515847884</v>
+        <v>16.92049976619308</v>
       </c>
       <c r="C13">
-        <v>13.36546383055485</v>
+        <v>7.127878459299941</v>
       </c>
       <c r="D13">
-        <v>2.622098625659932</v>
+        <v>5.631724978396329</v>
       </c>
       <c r="E13">
-        <v>6.210286211547915</v>
+        <v>7.740362844284422</v>
       </c>
       <c r="F13">
-        <v>39.45352826193107</v>
+        <v>26.67717531723035</v>
       </c>
       <c r="G13">
-        <v>2.097287904350104</v>
+        <v>2.108103798544514</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.776824153969594</v>
+        <v>5.961626348895197</v>
       </c>
       <c r="K13">
-        <v>20.86990555950752</v>
+        <v>13.09834131160559</v>
       </c>
       <c r="L13">
-        <v>6.929043801608767</v>
+        <v>6.640845410382693</v>
       </c>
       <c r="M13">
-        <v>15.38073789181047</v>
+        <v>11.51503746242346</v>
       </c>
       <c r="N13">
-        <v>14.04370495651155</v>
+        <v>13.48596501556395</v>
       </c>
       <c r="O13">
-        <v>29.57750552276466</v>
+        <v>19.57422985541319</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.02185152174853</v>
+        <v>16.7844834038774</v>
       </c>
       <c r="C14">
-        <v>13.24337914954495</v>
+        <v>7.112291171073995</v>
       </c>
       <c r="D14">
-        <v>2.613613932771777</v>
+        <v>5.603634071336004</v>
       </c>
       <c r="E14">
-        <v>6.213556598455975</v>
+        <v>7.738032171180337</v>
       </c>
       <c r="F14">
-        <v>39.27953018689328</v>
+        <v>26.62992763841328</v>
       </c>
       <c r="G14">
-        <v>2.099043983440427</v>
+        <v>2.108993785320419</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.78516890228679</v>
+        <v>5.969978307606906</v>
       </c>
       <c r="K14">
-        <v>20.67263754380078</v>
+        <v>12.98723403963077</v>
       </c>
       <c r="L14">
-        <v>6.91212638907993</v>
+        <v>6.62535415641992</v>
       </c>
       <c r="M14">
-        <v>15.2907548401313</v>
+        <v>11.45811250680007</v>
       </c>
       <c r="N14">
-        <v>14.09164710601939</v>
+        <v>13.52626785367607</v>
       </c>
       <c r="O14">
-        <v>29.4601410590298</v>
+        <v>19.56362566706794</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.88817177655272</v>
+        <v>16.70073412674494</v>
       </c>
       <c r="C15">
-        <v>13.16821380108951</v>
+        <v>7.102733736798907</v>
       </c>
       <c r="D15">
-        <v>2.608434642464826</v>
+        <v>5.586395658094694</v>
       </c>
       <c r="E15">
-        <v>6.215580674982994</v>
+        <v>7.736661478594358</v>
       </c>
       <c r="F15">
-        <v>39.17346952471082</v>
+        <v>26.60136732901019</v>
       </c>
       <c r="G15">
-        <v>2.100120994563713</v>
+        <v>2.109540397242711</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.79028806562078</v>
+        <v>5.975111052903329</v>
       </c>
       <c r="K15">
-        <v>20.55117704862234</v>
+        <v>12.91874626249354</v>
       </c>
       <c r="L15">
-        <v>6.901815336024778</v>
+        <v>6.615892391185278</v>
       </c>
       <c r="M15">
-        <v>15.23559899651908</v>
+        <v>11.42318715609792</v>
       </c>
       <c r="N15">
-        <v>14.12106558365652</v>
+        <v>13.55099413125523</v>
       </c>
       <c r="O15">
-        <v>29.38870437431625</v>
+        <v>19.55743291633901</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.11470553806131</v>
+        <v>16.21415991553734</v>
       </c>
       <c r="C16">
-        <v>12.73150201120907</v>
+        <v>7.047817230565638</v>
       </c>
       <c r="D16">
-        <v>2.579010813041255</v>
+        <v>5.487143523783414</v>
       </c>
       <c r="E16">
-        <v>6.227494900083848</v>
+        <v>7.729671935364733</v>
       </c>
       <c r="F16">
-        <v>38.57355505291349</v>
+        <v>26.44347563795222</v>
       </c>
       <c r="G16">
-        <v>2.106315698457031</v>
+        <v>2.112695770127551</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.819749685599215</v>
+        <v>6.004786565429185</v>
       </c>
       <c r="K16">
-        <v>19.84540896249102</v>
+        <v>12.51963865188214</v>
       </c>
       <c r="L16">
-        <v>6.843510573118662</v>
+        <v>6.562093160033104</v>
       </c>
       <c r="M16">
-        <v>14.91896603919934</v>
+        <v>11.22221340025217</v>
       </c>
       <c r="N16">
-        <v>14.29046933589891</v>
+        <v>13.6933176829333</v>
       </c>
       <c r="O16">
-        <v>28.98618250667485</v>
+        <v>19.52650815965549</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.6336199093853</v>
+        <v>15.90977549152965</v>
       </c>
       <c r="C17">
-        <v>12.45819412088299</v>
+        <v>7.014000293063302</v>
       </c>
       <c r="D17">
-        <v>2.561171888189165</v>
+        <v>5.425866510209116</v>
       </c>
       <c r="E17">
-        <v>6.23508006664717</v>
+        <v>7.726148674488717</v>
       </c>
       <c r="F17">
-        <v>38.21248929923738</v>
+        <v>26.3517097838313</v>
       </c>
       <c r="G17">
-        <v>2.110138291359514</v>
+        <v>2.114652446767445</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.8379427833931</v>
+        <v>6.023227678067593</v>
       </c>
       <c r="K17">
-        <v>19.45415811351073</v>
+        <v>12.26886024601493</v>
       </c>
       <c r="L17">
-        <v>6.808438530597425</v>
+        <v>6.529473917428022</v>
       </c>
       <c r="M17">
-        <v>14.72426778347139</v>
+        <v>11.09823284240462</v>
       </c>
       <c r="N17">
-        <v>14.39513817374535</v>
+        <v>13.78120948282043</v>
       </c>
       <c r="O17">
-        <v>28.74527795906144</v>
+        <v>19.51152735540801</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.35450195019467</v>
+        <v>15.73255573779712</v>
       </c>
       <c r="C18">
-        <v>12.29898268884918</v>
+        <v>6.994504299526104</v>
       </c>
       <c r="D18">
-        <v>2.550982642835676</v>
+        <v>5.39048956406403</v>
       </c>
       <c r="E18">
-        <v>6.239542491382156</v>
+        <v>7.724400179372844</v>
       </c>
       <c r="F18">
-        <v>38.00734854188836</v>
+        <v>26.30077738261708</v>
       </c>
       <c r="G18">
-        <v>2.112345924394707</v>
+        <v>2.115785759430657</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.848453568047577</v>
+        <v>6.033922286797233</v>
       </c>
       <c r="K18">
-        <v>19.23291514508173</v>
+        <v>12.12242865459859</v>
       </c>
       <c r="L18">
-        <v>6.788520643652936</v>
+        <v>6.510856795975241</v>
       </c>
       <c r="M18">
-        <v>14.61213462915854</v>
+        <v>11.02669032805874</v>
       </c>
       <c r="N18">
-        <v>14.45562082829384</v>
+        <v>13.83198423607231</v>
       </c>
       <c r="O18">
-        <v>28.6088992742002</v>
+        <v>19.50434501957442</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.25958500153947</v>
+        <v>15.67218548550696</v>
       </c>
       <c r="C19">
-        <v>12.2447283439266</v>
+        <v>6.987895639699429</v>
       </c>
       <c r="D19">
-        <v>2.547544381164939</v>
+        <v>5.378489938476941</v>
       </c>
       <c r="E19">
-        <v>6.241070338185845</v>
+        <v>7.723855630271609</v>
       </c>
       <c r="F19">
-        <v>37.93832465369105</v>
+        <v>26.28384778952466</v>
       </c>
       <c r="G19">
-        <v>2.11309500343172</v>
+        <v>2.116170850647911</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.852020593593865</v>
+        <v>6.037558464207143</v>
       </c>
       <c r="K19">
-        <v>19.15767730611812</v>
+        <v>12.07247249410954</v>
       </c>
       <c r="L19">
-        <v>6.781820421283437</v>
+        <v>6.504578495410536</v>
       </c>
       <c r="M19">
-        <v>14.57414486572922</v>
+        <v>11.0024294801331</v>
       </c>
       <c r="N19">
-        <v>14.47614788061351</v>
+        <v>13.84921453981727</v>
       </c>
       <c r="O19">
-        <v>28.56309577220253</v>
+        <v>19.50215647428781</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.68508208400257</v>
+        <v>15.94240025469174</v>
       </c>
       <c r="C20">
-        <v>12.48749583466419</v>
+        <v>7.017604894772951</v>
       </c>
       <c r="D20">
-        <v>2.563063357344314</v>
+        <v>5.432403470874558</v>
       </c>
       <c r="E20">
-        <v>6.234262260477172</v>
+        <v>7.726494893065539</v>
       </c>
       <c r="F20">
-        <v>38.25066252441792</v>
+        <v>26.36128651792599</v>
       </c>
       <c r="G20">
-        <v>2.10973045742797</v>
+        <v>2.114443343280619</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.83600133485379</v>
+        <v>6.021255528462471</v>
       </c>
       <c r="K20">
-        <v>19.49494875979645</v>
+        <v>12.29578256834031</v>
       </c>
       <c r="L20">
-        <v>6.812145632356241</v>
+        <v>6.532931397101923</v>
       </c>
       <c r="M20">
-        <v>14.74500951091152</v>
+        <v>11.11145530697577</v>
       </c>
       <c r="N20">
-        <v>14.38396716747489</v>
+        <v>13.77183048690642</v>
       </c>
       <c r="O20">
-        <v>28.77069598489229</v>
+        <v>19.51297292312096</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.08582359832183</v>
+        <v>16.8245254976649</v>
       </c>
       <c r="C21">
-        <v>13.27931843484928</v>
+        <v>7.116871578582069</v>
       </c>
       <c r="D21">
-        <v>2.616102336111438</v>
+        <v>5.611891759070181</v>
       </c>
       <c r="E21">
-        <v>6.212591645297703</v>
+        <v>7.738704869275565</v>
       </c>
       <c r="F21">
-        <v>39.33052948374759</v>
+        <v>26.64372605778456</v>
       </c>
       <c r="G21">
-        <v>2.09852790128922</v>
+        <v>2.108732069492095</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.782716245909924</v>
+        <v>5.967521612452726</v>
       </c>
       <c r="K21">
-        <v>20.7307106018847</v>
+        <v>13.01995878525588</v>
       </c>
       <c r="L21">
-        <v>6.917084733255726</v>
+        <v>6.629898688293263</v>
       </c>
       <c r="M21">
-        <v>15.31719317023843</v>
+        <v>11.4748447671903</v>
       </c>
       <c r="N21">
-        <v>14.07755441907677</v>
+        <v>13.51442172349214</v>
       </c>
       <c r="O21">
-        <v>29.49451935837367</v>
+        <v>19.56667712887259</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.97968765902429</v>
+        <v>17.3816044251163</v>
       </c>
       <c r="C22">
-        <v>13.77951443530251</v>
+        <v>7.181314600645101</v>
       </c>
       <c r="D22">
-        <v>2.651546310305092</v>
+        <v>5.727797758264744</v>
       </c>
       <c r="E22">
-        <v>6.199357599841472</v>
+        <v>7.749223980137352</v>
       </c>
       <c r="F22">
-        <v>40.05941090946971</v>
+        <v>26.84527330984676</v>
       </c>
       <c r="G22">
-        <v>2.091269447173593</v>
+        <v>2.105065681063873</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.748246346896155</v>
+        <v>5.933163782001385</v>
       </c>
       <c r="K22">
-        <v>21.53883833004332</v>
+        <v>13.4739207864931</v>
       </c>
       <c r="L22">
-        <v>6.987963548562419</v>
+        <v>6.694492800618993</v>
       </c>
       <c r="M22">
-        <v>15.68946751943981</v>
+        <v>11.70983779704413</v>
       </c>
       <c r="N22">
-        <v>13.8796631324978</v>
+        <v>13.34798616406342</v>
       </c>
       <c r="O22">
-        <v>29.98774096785157</v>
+        <v>19.61523361973391</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.50459067596563</v>
+        <v>17.08607262661696</v>
       </c>
       <c r="C23">
-        <v>13.51410252233033</v>
+        <v>7.146961111393344</v>
       </c>
       <c r="D23">
-        <v>2.632550217922963</v>
+        <v>5.666074823945496</v>
       </c>
       <c r="E23">
-        <v>6.206333646541053</v>
+        <v>7.743374306890508</v>
       </c>
       <c r="F23">
-        <v>39.66824614902939</v>
+        <v>26.7361292789195</v>
       </c>
       <c r="G23">
-        <v>2.095138517452426</v>
+        <v>2.107016636411738</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.766614156498302</v>
+        <v>5.951432672845823</v>
       </c>
       <c r="K23">
-        <v>21.11006261722994</v>
+        <v>13.23339217982064</v>
       </c>
       <c r="L23">
-        <v>6.949922602515541</v>
+        <v>6.659909278980019</v>
       </c>
       <c r="M23">
-        <v>15.49094571830713</v>
+        <v>11.58466634201387</v>
       </c>
       <c r="N23">
-        <v>13.98507057295711</v>
+        <v>13.43666055679815</v>
       </c>
       <c r="O23">
-        <v>29.72261726436193</v>
+        <v>19.58805349956778</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.66182392949711</v>
+        <v>15.92765752581749</v>
       </c>
       <c r="C24">
-        <v>12.47425502473596</v>
+        <v>7.015975422774404</v>
       </c>
       <c r="D24">
-        <v>2.562208018265289</v>
+        <v>5.429448569286078</v>
       </c>
       <c r="E24">
-        <v>6.234631674585764</v>
+        <v>7.726337505327756</v>
       </c>
       <c r="F24">
-        <v>38.23339681251808</v>
+        <v>26.35695119752766</v>
       </c>
       <c r="G24">
-        <v>2.109914807902806</v>
+        <v>2.114537852781453</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.836878903211558</v>
+        <v>6.022146848739994</v>
       </c>
       <c r="K24">
-        <v>19.47651359874953</v>
+        <v>12.28361801444531</v>
       </c>
       <c r="L24">
-        <v>6.81046888725449</v>
+        <v>6.531367845821712</v>
       </c>
       <c r="M24">
-        <v>14.73563278983007</v>
+        <v>11.10547824939914</v>
       </c>
       <c r="N24">
-        <v>14.38901662128931</v>
+        <v>13.77606996718682</v>
       </c>
       <c r="O24">
-        <v>28.7591978980449</v>
+        <v>19.51231493441527</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.58245401980995</v>
+        <v>14.59645284361304</v>
       </c>
       <c r="C25">
-        <v>11.27540565134139</v>
+        <v>6.872973154324244</v>
       </c>
       <c r="D25">
-        <v>2.48899290481634</v>
+        <v>5.169326411250938</v>
       </c>
       <c r="E25">
-        <v>6.268948419141126</v>
+        <v>7.718550749912137</v>
       </c>
       <c r="F25">
-        <v>36.78239267383879</v>
+        <v>26.01828918964359</v>
       </c>
       <c r="G25">
-        <v>2.126204680735641</v>
+        <v>2.122954202701092</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.914481427979239</v>
+        <v>6.101790954004147</v>
       </c>
       <c r="K25">
-        <v>17.82807910705683</v>
+        <v>11.17531033888056</v>
       </c>
       <c r="L25">
-        <v>6.669771850853672</v>
+        <v>6.398282531213684</v>
       </c>
       <c r="M25">
-        <v>13.91562331448492</v>
+        <v>10.58004219193905</v>
       </c>
       <c r="N25">
-        <v>14.83552650953802</v>
+        <v>14.15074839684772</v>
       </c>
       <c r="O25">
-        <v>27.80310820651792</v>
+        <v>19.48504544181668</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.54885567310213</v>
+        <v>12.2952606639518</v>
       </c>
       <c r="C2">
-        <v>6.766372588563814</v>
+        <v>6.890911436074464</v>
       </c>
       <c r="D2">
-        <v>4.974969799319117</v>
+        <v>5.924162640786468</v>
       </c>
       <c r="E2">
-        <v>7.721573553427108</v>
+        <v>8.129283900986653</v>
       </c>
       <c r="F2">
-        <v>25.82636010150799</v>
+        <v>21.41501241429154</v>
       </c>
       <c r="G2">
-        <v>2.129433066273291</v>
+        <v>23.72581859493568</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.810734913683997</v>
       </c>
       <c r="J2">
-        <v>6.163449590458218</v>
+        <v>9.628422775641608</v>
       </c>
       <c r="K2">
-        <v>10.28628140263852</v>
+        <v>15.62175277053162</v>
       </c>
       <c r="L2">
-        <v>6.305410353335475</v>
+        <v>6.088635949177597</v>
       </c>
       <c r="M2">
-        <v>10.18847180586648</v>
+        <v>10.33515754350124</v>
       </c>
       <c r="N2">
-        <v>14.43493965730671</v>
+        <v>6.686946664017769</v>
       </c>
       <c r="O2">
-        <v>19.50804862556319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.652577015358348</v>
+      </c>
+      <c r="P2">
+        <v>13.27791199905958</v>
+      </c>
+      <c r="Q2">
+        <v>15.71740788963582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.79902368536868</v>
+        <v>11.52470278870813</v>
       </c>
       <c r="C3">
-        <v>6.69340980059762</v>
+        <v>6.780037378481269</v>
       </c>
       <c r="D3">
-        <v>4.842282802440677</v>
+        <v>5.751584214542953</v>
       </c>
       <c r="E3">
-        <v>7.72890648093742</v>
+        <v>8.043730118326843</v>
       </c>
       <c r="F3">
-        <v>25.73039851518747</v>
+        <v>21.2956188428845</v>
       </c>
       <c r="G3">
-        <v>2.134009509463517</v>
+        <v>23.59393714884113</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.986107525616194</v>
       </c>
       <c r="J3">
-        <v>6.207176365987645</v>
+        <v>9.675314571116822</v>
       </c>
       <c r="K3">
-        <v>9.637930740645109</v>
+        <v>15.7208876072951</v>
       </c>
       <c r="L3">
-        <v>6.245821768361519</v>
+        <v>6.067953563147605</v>
       </c>
       <c r="M3">
-        <v>9.921720607719561</v>
+        <v>9.768434897434727</v>
       </c>
       <c r="N3">
-        <v>14.63316794122868</v>
+        <v>6.557685715648732</v>
       </c>
       <c r="O3">
-        <v>19.54864419140517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.32378434266465</v>
+      </c>
+      <c r="P3">
+        <v>13.41295179622418</v>
+      </c>
+      <c r="Q3">
+        <v>15.74861586794047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.31999498546552</v>
+        <v>11.0303916514129</v>
       </c>
       <c r="C4">
-        <v>6.648292452761038</v>
+        <v>6.710597138719979</v>
       </c>
       <c r="D4">
-        <v>4.760628634503237</v>
+        <v>5.643867568623551</v>
       </c>
       <c r="E4">
-        <v>7.735956294219304</v>
+        <v>7.990713466530855</v>
       </c>
       <c r="F4">
-        <v>25.68768663616872</v>
+        <v>21.23180050476675</v>
       </c>
       <c r="G4">
-        <v>2.136914085031091</v>
+        <v>23.52737931450098</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>3.097833594039696</v>
       </c>
       <c r="J4">
-        <v>6.23500019394436</v>
+        <v>9.707398189724698</v>
       </c>
       <c r="K4">
-        <v>9.217173343071092</v>
+        <v>15.78783321626956</v>
       </c>
       <c r="L4">
-        <v>6.210936986581421</v>
+        <v>6.054749630841799</v>
       </c>
       <c r="M4">
-        <v>9.757825742461382</v>
+        <v>9.402233306004014</v>
       </c>
       <c r="N4">
-        <v>14.7577941238675</v>
+        <v>6.477062447822779</v>
       </c>
       <c r="O4">
-        <v>19.58528893301172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.116801306015992</v>
+      </c>
+      <c r="P4">
+        <v>13.49800283473673</v>
+      </c>
+      <c r="Q4">
+        <v>15.77498348974952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.12029823370377</v>
+        <v>10.82254172471508</v>
       </c>
       <c r="C5">
-        <v>6.629832866612564</v>
+        <v>6.681971591981499</v>
       </c>
       <c r="D5">
-        <v>4.727354887980702</v>
+        <v>5.599589259037626</v>
       </c>
       <c r="E5">
-        <v>7.739460982794492</v>
+        <v>7.968993200766654</v>
       </c>
       <c r="F5">
-        <v>25.6742614118169</v>
+        <v>21.20815156324451</v>
       </c>
       <c r="G5">
-        <v>2.138121940562534</v>
+        <v>23.50380969256894</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>3.144391622429369</v>
       </c>
       <c r="J5">
-        <v>6.246586471655257</v>
+        <v>9.721284397741298</v>
       </c>
       <c r="K5">
-        <v>9.040011615437484</v>
+        <v>15.81660771580074</v>
       </c>
       <c r="L5">
-        <v>6.197156502459729</v>
+        <v>6.049240156513362</v>
       </c>
       <c r="M5">
-        <v>9.691101580164771</v>
+        <v>9.248486596108373</v>
       </c>
       <c r="N5">
-        <v>14.80933175133739</v>
+        <v>6.443919161759054</v>
       </c>
       <c r="O5">
-        <v>19.60307829849892</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.031280006334267</v>
+      </c>
+      <c r="P5">
+        <v>13.53320668060117</v>
+      </c>
+      <c r="Q5">
+        <v>15.78749531251789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.08687414913765</v>
+        <v>10.78764355992424</v>
       </c>
       <c r="C6">
-        <v>6.626763382862596</v>
+        <v>6.677198968459905</v>
       </c>
       <c r="D6">
-        <v>4.72183128620277</v>
+        <v>5.59221551945104</v>
       </c>
       <c r="E6">
-        <v>7.740080838845802</v>
+        <v>7.965379786257435</v>
       </c>
       <c r="F6">
-        <v>25.6722696716121</v>
+        <v>21.20436615194295</v>
       </c>
       <c r="G6">
-        <v>2.138323978848629</v>
+        <v>23.5001083425628</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>3.152185004115063</v>
       </c>
       <c r="J6">
-        <v>6.248525407353098</v>
+        <v>9.723638772909684</v>
       </c>
       <c r="K6">
-        <v>9.010249955013949</v>
+        <v>15.82147493302253</v>
       </c>
       <c r="L6">
-        <v>6.194894752057711</v>
+        <v>6.048317483367391</v>
       </c>
       <c r="M6">
-        <v>9.680028717838486</v>
+        <v>9.222686593365601</v>
       </c>
       <c r="N6">
-        <v>14.81793545948412</v>
+        <v>6.438399128923246</v>
       </c>
       <c r="O6">
-        <v>19.60620209706223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.017011742858601</v>
+      </c>
+      <c r="P6">
+        <v>13.53908538314137</v>
+      </c>
+      <c r="Q6">
+        <v>15.78967828634049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.31731969161983</v>
+        <v>11.02761437339485</v>
       </c>
       <c r="C7">
-        <v>6.648043791444492</v>
+        <v>6.710212393106596</v>
       </c>
       <c r="D7">
-        <v>4.76017982524317</v>
+        <v>5.643271886921079</v>
       </c>
       <c r="E7">
-        <v>7.736001012953568</v>
+        <v>7.990420998352079</v>
       </c>
       <c r="F7">
-        <v>25.68748959291527</v>
+        <v>21.23147206190956</v>
       </c>
       <c r="G7">
-        <v>2.136930275987381</v>
+        <v>23.52704715962438</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>3.09845731186617</v>
       </c>
       <c r="J7">
-        <v>6.235155443669478</v>
+        <v>9.707582197320518</v>
       </c>
       <c r="K7">
-        <v>9.214807150184495</v>
+        <v>15.78821527594909</v>
       </c>
       <c r="L7">
-        <v>6.210749366529172</v>
+        <v>6.054675851872713</v>
       </c>
       <c r="M7">
-        <v>9.756925492829879</v>
+        <v>9.400178009850311</v>
       </c>
       <c r="N7">
-        <v>14.75848611126722</v>
+        <v>6.476616597770001</v>
       </c>
       <c r="O7">
-        <v>19.58551740025531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.115652537674695</v>
+      </c>
+      <c r="P7">
+        <v>13.49847538989093</v>
+      </c>
+      <c r="Q7">
+        <v>15.77514513429487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.29428543950706</v>
+        <v>12.03004303079724</v>
       </c>
       <c r="C8">
-        <v>6.741284548489164</v>
+        <v>6.85297355636148</v>
       </c>
       <c r="D8">
-        <v>4.929285134077385</v>
+        <v>5.865054877485062</v>
       </c>
       <c r="E8">
-        <v>7.723568002014004</v>
+        <v>8.099889882769249</v>
       </c>
       <c r="F8">
-        <v>25.78985229715327</v>
+        <v>21.37185973596118</v>
       </c>
       <c r="G8">
-        <v>2.130991645904869</v>
+        <v>23.67731198615692</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.870370372067363</v>
       </c>
       <c r="J8">
-        <v>6.178325703421879</v>
+        <v>9.643898109570198</v>
       </c>
       <c r="K8">
-        <v>10.06743259353985</v>
+        <v>15.65465221211159</v>
       </c>
       <c r="L8">
-        <v>6.284515279974729</v>
+        <v>6.081608337857656</v>
       </c>
       <c r="M8">
-        <v>10.09657226059235</v>
+        <v>10.14357135207941</v>
       </c>
       <c r="N8">
-        <v>14.50269576185734</v>
+        <v>6.642654328177031</v>
       </c>
       <c r="O8">
-        <v>19.51955902134274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.540330733100514</v>
+      </c>
+      <c r="P8">
+        <v>13.32403511000155</v>
+      </c>
+      <c r="Q8">
+        <v>15.72664560144291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.05557736193352</v>
+        <v>13.88057599192622</v>
       </c>
       <c r="C9">
-        <v>6.921359046387233</v>
+        <v>7.121509705696362</v>
       </c>
       <c r="D9">
-        <v>5.257486993031955</v>
+        <v>6.283728064927812</v>
       </c>
       <c r="E9">
-        <v>7.719789989842532</v>
+        <v>8.310415395027242</v>
       </c>
       <c r="F9">
-        <v>26.12323209566251</v>
+        <v>21.72356765895702</v>
       </c>
       <c r="G9">
-        <v>2.120076694283815</v>
+        <v>24.0892761264141</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.454674732942101</v>
       </c>
       <c r="J9">
-        <v>6.074501942674109</v>
+        <v>9.545873832077337</v>
       </c>
       <c r="K9">
-        <v>11.559930703357</v>
+        <v>15.44255934453533</v>
       </c>
       <c r="L9">
-        <v>6.442339447792368</v>
+        <v>6.13050192460094</v>
       </c>
       <c r="M9">
-        <v>10.75795694007262</v>
+        <v>11.45448680296283</v>
       </c>
       <c r="N9">
-        <v>14.02330632638643</v>
+        <v>6.957144342895146</v>
       </c>
       <c r="O9">
-        <v>19.48728966562904</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.32836174532862</v>
+      </c>
+      <c r="P9">
+        <v>12.99854184921934</v>
+      </c>
+      <c r="Q9">
+        <v>15.69074513771128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.24860018530586</v>
+        <v>15.07196331360386</v>
       </c>
       <c r="C10">
-        <v>7.051669721526174</v>
+        <v>7.329936290719857</v>
       </c>
       <c r="D10">
-        <v>5.49411696144934</v>
+        <v>6.541805956690314</v>
       </c>
       <c r="E10">
-        <v>7.730111849602568</v>
+        <v>8.399947181965143</v>
       </c>
       <c r="F10">
-        <v>26.45419902779508</v>
+        <v>21.94045726069578</v>
       </c>
       <c r="G10">
-        <v>2.112473554935741</v>
+        <v>24.35235307736007</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.194470904424946</v>
       </c>
       <c r="J10">
-        <v>6.002694128064777</v>
+        <v>9.472983991228277</v>
       </c>
       <c r="K10">
-        <v>12.54795796243121</v>
+        <v>15.2778267758995</v>
       </c>
       <c r="L10">
-        <v>6.565834606829888</v>
+        <v>6.153498253794362</v>
       </c>
       <c r="M10">
-        <v>11.23632741705948</v>
+        <v>12.31992752864644</v>
       </c>
       <c r="N10">
-        <v>13.68331806900826</v>
+        <v>7.120827910473125</v>
       </c>
       <c r="O10">
-        <v>19.52841425377229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.81927860812096</v>
+      </c>
+      <c r="P10">
+        <v>12.77046300528813</v>
+      </c>
+      <c r="Q10">
+        <v>15.65638735725238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.76849377542824</v>
+        <v>15.3380404614538</v>
       </c>
       <c r="C11">
-        <v>7.110464074165941</v>
+        <v>7.594639361322954</v>
       </c>
       <c r="D11">
-        <v>5.600339433374596</v>
+        <v>6.338951469934873</v>
       </c>
       <c r="E11">
-        <v>7.737766682919569</v>
+        <v>7.951082774194253</v>
       </c>
       <c r="F11">
-        <v>26.62444352145377</v>
+        <v>21.27260330303395</v>
       </c>
       <c r="G11">
-        <v>2.109098226730037</v>
+        <v>23.49201373789412</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.059350023508511</v>
       </c>
       <c r="J11">
-        <v>5.97095883950712</v>
+        <v>9.283909681528097</v>
       </c>
       <c r="K11">
-        <v>12.9741626833376</v>
+        <v>14.85077883675478</v>
       </c>
       <c r="L11">
-        <v>6.623543165299553</v>
+        <v>6.106592253358281</v>
       </c>
       <c r="M11">
-        <v>11.45143706479979</v>
+        <v>12.64244876465235</v>
       </c>
       <c r="N11">
-        <v>13.53099390773904</v>
+        <v>6.699704220801664</v>
       </c>
       <c r="O11">
-        <v>19.56242353618358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.55351668881523</v>
+      </c>
+      <c r="P11">
+        <v>12.6901035862984</v>
+      </c>
+      <c r="Q11">
+        <v>15.2410121458381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.96203301287114</v>
+        <v>15.31892826893045</v>
       </c>
       <c r="C12">
-        <v>7.132654124393553</v>
+        <v>7.786312151007466</v>
       </c>
       <c r="D12">
-        <v>5.640325645600958</v>
+        <v>6.110901698188746</v>
       </c>
       <c r="E12">
-        <v>7.7411002856796</v>
+        <v>7.626047896882025</v>
       </c>
       <c r="F12">
-        <v>26.69181529876</v>
+        <v>20.65021275360784</v>
       </c>
       <c r="G12">
-        <v>2.107831480378564</v>
+        <v>22.69086879399757</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.354122253840346</v>
       </c>
       <c r="J12">
-        <v>5.959072087446515</v>
+        <v>9.13647159715021</v>
       </c>
       <c r="K12">
-        <v>13.13223864141312</v>
+        <v>14.52392724314368</v>
       </c>
       <c r="L12">
-        <v>6.645606288574771</v>
+        <v>6.109976516953757</v>
       </c>
       <c r="M12">
-        <v>11.53246934535599</v>
+        <v>12.73861653887107</v>
       </c>
       <c r="N12">
-        <v>13.47362241359557</v>
+        <v>6.333244721510646</v>
       </c>
       <c r="O12">
-        <v>19.5776029439038</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.22072455928605</v>
+      </c>
+      <c r="P12">
+        <v>12.67985027582693</v>
+      </c>
+      <c r="Q12">
+        <v>14.88996430939446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.92049976619308</v>
+        <v>15.07889935398352</v>
       </c>
       <c r="C13">
-        <v>7.127878459299941</v>
+        <v>7.932890358051218</v>
       </c>
       <c r="D13">
-        <v>5.631724978396329</v>
+        <v>5.846050252362434</v>
       </c>
       <c r="E13">
-        <v>7.740362844284422</v>
+        <v>7.384428558677096</v>
       </c>
       <c r="F13">
-        <v>26.67717531723035</v>
+        <v>20.02184740167315</v>
       </c>
       <c r="G13">
-        <v>2.108103798544514</v>
+        <v>21.88041738029913</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.732754093192391</v>
       </c>
       <c r="J13">
-        <v>5.961626348895197</v>
+        <v>9.012233794351742</v>
       </c>
       <c r="K13">
-        <v>13.09834131160559</v>
+        <v>14.25579574089496</v>
       </c>
       <c r="L13">
-        <v>6.640845410382693</v>
+        <v>6.149832331934706</v>
       </c>
       <c r="M13">
-        <v>11.51503746242346</v>
+        <v>12.66939267238199</v>
       </c>
       <c r="N13">
-        <v>13.48596501556395</v>
+        <v>5.989069135764926</v>
       </c>
       <c r="O13">
-        <v>19.57422985541319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.810020544996174</v>
+      </c>
+      <c r="P13">
+        <v>12.71993829687582</v>
+      </c>
+      <c r="Q13">
+        <v>14.5667212056029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.7844834038774</v>
+        <v>14.80731098926673</v>
       </c>
       <c r="C14">
-        <v>7.112291171073995</v>
+        <v>8.016103526800151</v>
       </c>
       <c r="D14">
-        <v>5.603634071336004</v>
+        <v>5.642736133524314</v>
       </c>
       <c r="E14">
-        <v>7.738032171180337</v>
+        <v>7.268902175446179</v>
       </c>
       <c r="F14">
-        <v>26.62992763841328</v>
+        <v>19.58109747057553</v>
       </c>
       <c r="G14">
-        <v>2.108993785320419</v>
+        <v>21.31070959716818</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.721505395078198</v>
       </c>
       <c r="J14">
-        <v>5.969978307606906</v>
+        <v>8.936516224127518</v>
       </c>
       <c r="K14">
-        <v>12.98723403963077</v>
+        <v>14.09756513448322</v>
       </c>
       <c r="L14">
-        <v>6.62535415641992</v>
+        <v>6.198908105895706</v>
       </c>
       <c r="M14">
-        <v>11.45811250680007</v>
+        <v>12.54528144874384</v>
       </c>
       <c r="N14">
-        <v>13.52626785367607</v>
+        <v>5.765896733766067</v>
       </c>
       <c r="O14">
-        <v>19.56362566706794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.484134952219696</v>
+      </c>
+      <c r="P14">
+        <v>12.77066919166891</v>
+      </c>
+      <c r="Q14">
+        <v>14.35484412025485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.70073412674494</v>
+        <v>14.6927649493466</v>
       </c>
       <c r="C15">
-        <v>7.102733736798907</v>
+        <v>8.025181056821788</v>
       </c>
       <c r="D15">
-        <v>5.586395658094694</v>
+        <v>5.585533571039676</v>
       </c>
       <c r="E15">
-        <v>7.736661478594358</v>
+        <v>7.248553651619266</v>
       </c>
       <c r="F15">
-        <v>26.60136732901019</v>
+        <v>19.47484029538406</v>
       </c>
       <c r="G15">
-        <v>2.109540397242711</v>
+        <v>21.17331782705729</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.952931063528702</v>
       </c>
       <c r="J15">
-        <v>5.975111052903329</v>
+        <v>8.923627674324438</v>
       </c>
       <c r="K15">
-        <v>12.91874626249354</v>
+        <v>14.0721820916127</v>
       </c>
       <c r="L15">
-        <v>6.615892391185278</v>
+        <v>6.21192728259337</v>
       </c>
       <c r="M15">
-        <v>11.42318715609792</v>
+        <v>12.47912609690821</v>
       </c>
       <c r="N15">
-        <v>13.55099413125523</v>
+        <v>5.713515591163651</v>
       </c>
       <c r="O15">
-        <v>19.55743291633901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.388392162686678</v>
+      </c>
+      <c r="P15">
+        <v>12.79206233595657</v>
+      </c>
+      <c r="Q15">
+        <v>14.31066132237571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.21415991553734</v>
+        <v>14.23595198810074</v>
       </c>
       <c r="C16">
-        <v>7.047817230565638</v>
+        <v>7.907119679327621</v>
       </c>
       <c r="D16">
-        <v>5.487143523783414</v>
+        <v>5.520949694087137</v>
       </c>
       <c r="E16">
-        <v>7.729671935364733</v>
+        <v>7.256383023437811</v>
       </c>
       <c r="F16">
-        <v>26.44347563795222</v>
+        <v>19.50243484668034</v>
       </c>
       <c r="G16">
-        <v>2.112695770127551</v>
+        <v>21.21134008347977</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.762052091915526</v>
       </c>
       <c r="J16">
-        <v>6.004786565429185</v>
+        <v>8.9797869783922</v>
       </c>
       <c r="K16">
-        <v>12.51963865188214</v>
+        <v>14.19888433319438</v>
       </c>
       <c r="L16">
-        <v>6.562093160033104</v>
+        <v>6.189118217948353</v>
       </c>
       <c r="M16">
-        <v>11.22221340025217</v>
+        <v>12.13413809811384</v>
       </c>
       <c r="N16">
-        <v>13.6933176829333</v>
+        <v>5.70923505138948</v>
       </c>
       <c r="O16">
-        <v>19.52650815965549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.248477766646996</v>
+      </c>
+      <c r="P16">
+        <v>12.87320873646772</v>
+      </c>
+      <c r="Q16">
+        <v>14.38950149802137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.90977549152965</v>
+        <v>14.02990468376004</v>
       </c>
       <c r="C17">
-        <v>7.014000293063302</v>
+        <v>7.77043479900619</v>
       </c>
       <c r="D17">
-        <v>5.425866510209116</v>
+        <v>5.581707831739927</v>
       </c>
       <c r="E17">
-        <v>7.726148674488717</v>
+        <v>7.315360105024295</v>
       </c>
       <c r="F17">
-        <v>26.3517097838313</v>
+        <v>19.75983501413945</v>
       </c>
       <c r="G17">
-        <v>2.114652446767445</v>
+        <v>21.54702998744047</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.061303794788658</v>
       </c>
       <c r="J17">
-        <v>6.023227678067593</v>
+        <v>9.063263155733472</v>
       </c>
       <c r="K17">
-        <v>12.26886024601493</v>
+        <v>14.3792492217475</v>
       </c>
       <c r="L17">
-        <v>6.529473917428022</v>
+        <v>6.14244066633195</v>
       </c>
       <c r="M17">
-        <v>11.09823284240462</v>
+        <v>11.93306056754064</v>
       </c>
       <c r="N17">
-        <v>13.78120948282043</v>
+        <v>5.820952597988347</v>
       </c>
       <c r="O17">
-        <v>19.51152735540801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.318619884596863</v>
+      </c>
+      <c r="P17">
+        <v>12.90977710341127</v>
+      </c>
+      <c r="Q17">
+        <v>14.56303250550151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.73255573779712</v>
+        <v>14.02363422724116</v>
       </c>
       <c r="C18">
-        <v>6.994504299526104</v>
+        <v>7.60726925210118</v>
       </c>
       <c r="D18">
-        <v>5.39048956406403</v>
+        <v>5.757749096489434</v>
       </c>
       <c r="E18">
-        <v>7.724400179372844</v>
+        <v>7.472269148550234</v>
       </c>
       <c r="F18">
-        <v>26.30077738261708</v>
+        <v>20.24093291305772</v>
       </c>
       <c r="G18">
-        <v>2.115785759430657</v>
+        <v>22.17065630874956</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.881498052010094</v>
       </c>
       <c r="J18">
-        <v>6.033922286797233</v>
+        <v>9.178763442133613</v>
       </c>
       <c r="K18">
-        <v>12.12242865459859</v>
+        <v>14.62777420457455</v>
       </c>
       <c r="L18">
-        <v>6.510856795975241</v>
+        <v>6.092367642359848</v>
       </c>
       <c r="M18">
-        <v>11.02669032805874</v>
+        <v>11.83803190854724</v>
       </c>
       <c r="N18">
-        <v>13.83198423607231</v>
+        <v>6.065864215370774</v>
       </c>
       <c r="O18">
-        <v>19.50434501957442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.577469779296639</v>
+      </c>
+      <c r="P18">
+        <v>12.9161691829731</v>
+      </c>
+      <c r="Q18">
+        <v>14.8355458909548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.67218548550696</v>
+        <v>14.17846238989751</v>
       </c>
       <c r="C19">
-        <v>6.987895639699429</v>
+        <v>7.441969831586929</v>
       </c>
       <c r="D19">
-        <v>5.378489938476941</v>
+        <v>6.013004605898828</v>
       </c>
       <c r="E19">
-        <v>7.723855630271609</v>
+        <v>7.761384617452381</v>
       </c>
       <c r="F19">
-        <v>26.28384778952466</v>
+        <v>20.86743826818459</v>
       </c>
       <c r="G19">
-        <v>2.116170850647911</v>
+        <v>22.97927903662042</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.534602494544896</v>
       </c>
       <c r="J19">
-        <v>6.037558464207143</v>
+        <v>9.311793503739265</v>
       </c>
       <c r="K19">
-        <v>12.07247249410954</v>
+        <v>14.91825856670726</v>
       </c>
       <c r="L19">
-        <v>6.504578495410536</v>
+        <v>6.07639640788809</v>
       </c>
       <c r="M19">
-        <v>11.0024294801331</v>
+        <v>11.83713768598214</v>
       </c>
       <c r="N19">
-        <v>13.84921453981727</v>
+        <v>6.426649346378019</v>
       </c>
       <c r="O19">
-        <v>19.50215647428781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.965753212732917</v>
+      </c>
+      <c r="P19">
+        <v>12.90302287408621</v>
+      </c>
+      <c r="Q19">
+        <v>15.16857524186579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.94240025469174</v>
+        <v>14.76728304634612</v>
       </c>
       <c r="C20">
-        <v>7.017604894772951</v>
+        <v>7.276559170552269</v>
       </c>
       <c r="D20">
-        <v>5.432403470874558</v>
+        <v>6.473211090237553</v>
       </c>
       <c r="E20">
-        <v>7.726494893065539</v>
+        <v>8.373770460802721</v>
       </c>
       <c r="F20">
-        <v>26.36128651792599</v>
+        <v>21.87630159623654</v>
       </c>
       <c r="G20">
-        <v>2.114443343280619</v>
+        <v>24.27299448678216</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.261164781453265</v>
       </c>
       <c r="J20">
-        <v>6.021255528462471</v>
+        <v>9.490134839186361</v>
       </c>
       <c r="K20">
-        <v>12.29578256834031</v>
+        <v>15.31704219407471</v>
       </c>
       <c r="L20">
-        <v>6.532931397101923</v>
+        <v>6.147038605074589</v>
       </c>
       <c r="M20">
-        <v>11.11145530697577</v>
+        <v>12.09860930024129</v>
       </c>
       <c r="N20">
-        <v>13.77183048690642</v>
+        <v>7.075658836596957</v>
       </c>
       <c r="O20">
-        <v>19.51297292312096</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.68997464507804</v>
+      </c>
+      <c r="P20">
+        <v>12.82967128571469</v>
+      </c>
+      <c r="Q20">
+        <v>15.66067540050284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.8245254976649</v>
+        <v>15.68068724914466</v>
       </c>
       <c r="C21">
-        <v>7.116871578582069</v>
+        <v>7.404708484234241</v>
       </c>
       <c r="D21">
-        <v>5.611891759070181</v>
+        <v>6.723653626240451</v>
       </c>
       <c r="E21">
-        <v>7.738704869275565</v>
+        <v>8.538002369274</v>
       </c>
       <c r="F21">
-        <v>26.64372605778456</v>
+        <v>22.19648631244556</v>
       </c>
       <c r="G21">
-        <v>2.108732069492095</v>
+        <v>24.67679748633691</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.027358011127722</v>
       </c>
       <c r="J21">
-        <v>5.967521612452726</v>
+        <v>9.468355351643785</v>
       </c>
       <c r="K21">
-        <v>13.01995878525588</v>
+        <v>15.26603276017163</v>
       </c>
       <c r="L21">
-        <v>6.629898688293263</v>
+        <v>6.180609531788119</v>
       </c>
       <c r="M21">
-        <v>11.4748447671903</v>
+        <v>12.74276373036315</v>
       </c>
       <c r="N21">
-        <v>13.51442172349214</v>
+        <v>7.290101117525519</v>
       </c>
       <c r="O21">
-        <v>19.56667712887259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.14188933931593</v>
+      </c>
+      <c r="P21">
+        <v>12.65537557239401</v>
+      </c>
+      <c r="Q21">
+        <v>15.719922607168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.3816044251163</v>
+        <v>16.23679059056514</v>
       </c>
       <c r="C22">
-        <v>7.181314600645101</v>
+        <v>7.496476917812435</v>
       </c>
       <c r="D22">
-        <v>5.727797758264744</v>
+        <v>6.865437257927984</v>
       </c>
       <c r="E22">
-        <v>7.749223980137352</v>
+        <v>8.612828217908106</v>
       </c>
       <c r="F22">
-        <v>26.84527330984676</v>
+        <v>22.36903693632173</v>
       </c>
       <c r="G22">
-        <v>2.105065681063873</v>
+        <v>24.89653082657435</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>1.890282973878075</v>
       </c>
       <c r="J22">
-        <v>5.933163782001385</v>
+        <v>9.448311348503237</v>
       </c>
       <c r="K22">
-        <v>13.4739207864931</v>
+        <v>15.21821894476598</v>
       </c>
       <c r="L22">
-        <v>6.694492800618993</v>
+        <v>6.196668035058941</v>
       </c>
       <c r="M22">
-        <v>11.70983779704413</v>
+        <v>13.1436858559554</v>
       </c>
       <c r="N22">
-        <v>13.34798616406342</v>
+        <v>7.398042322221658</v>
       </c>
       <c r="O22">
-        <v>19.61523361973391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.4015643438707</v>
+      </c>
+      <c r="P22">
+        <v>12.5437204908319</v>
+      </c>
+      <c r="Q22">
+        <v>15.74265046563087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.08607262661696</v>
+        <v>15.94235416939352</v>
       </c>
       <c r="C23">
-        <v>7.146961111393344</v>
+        <v>7.447646188492812</v>
       </c>
       <c r="D23">
-        <v>5.666074823945496</v>
+        <v>6.790048023182725</v>
       </c>
       <c r="E23">
-        <v>7.743374306890508</v>
+        <v>8.572950909104382</v>
       </c>
       <c r="F23">
-        <v>26.7361292789195</v>
+        <v>22.27612232400723</v>
       </c>
       <c r="G23">
-        <v>2.107016636411738</v>
+        <v>24.77792837521085</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>1.963160835016638</v>
       </c>
       <c r="J23">
-        <v>5.951432672845823</v>
+        <v>9.45868095643171</v>
       </c>
       <c r="K23">
-        <v>13.23339217982064</v>
+        <v>15.24310941726217</v>
       </c>
       <c r="L23">
-        <v>6.659909278980019</v>
+        <v>6.188130732692284</v>
       </c>
       <c r="M23">
-        <v>11.58466634201387</v>
+        <v>12.93125862495906</v>
       </c>
       <c r="N23">
-        <v>13.43666055679815</v>
+        <v>7.34060834497475</v>
       </c>
       <c r="O23">
-        <v>19.58805349956778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.26362733431924</v>
+      </c>
+      <c r="P23">
+        <v>12.60317147897272</v>
+      </c>
+      <c r="Q23">
+        <v>15.72978213048158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.92765752581749</v>
+        <v>14.7750565905767</v>
       </c>
       <c r="C24">
-        <v>7.015975422774404</v>
+        <v>7.259517055301698</v>
       </c>
       <c r="D24">
-        <v>5.429448569286078</v>
+        <v>6.498496158365845</v>
       </c>
       <c r="E24">
-        <v>7.726337505327756</v>
+        <v>8.420666640988188</v>
       </c>
       <c r="F24">
-        <v>26.35695119752766</v>
+        <v>21.94221495155629</v>
       </c>
       <c r="G24">
-        <v>2.114537852781453</v>
+        <v>24.35769710161383</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.245443490168375</v>
       </c>
       <c r="J24">
-        <v>6.022146848739994</v>
+        <v>9.505040089626103</v>
       </c>
       <c r="K24">
-        <v>12.28361801444531</v>
+        <v>15.35090863315235</v>
       </c>
       <c r="L24">
-        <v>6.531367845821712</v>
+        <v>6.155049005467649</v>
       </c>
       <c r="M24">
-        <v>11.10547824939914</v>
+        <v>12.09266607081618</v>
       </c>
       <c r="N24">
-        <v>13.77606996718682</v>
+        <v>7.119330224119789</v>
       </c>
       <c r="O24">
-        <v>19.51231493441527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.72711027462047</v>
+      </c>
+      <c r="P24">
+        <v>12.83149472378481</v>
+      </c>
+      <c r="Q24">
+        <v>15.69697745598201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.59645284361304</v>
+        <v>13.40336157641866</v>
       </c>
       <c r="C25">
-        <v>6.872973154324244</v>
+        <v>7.050165712873448</v>
       </c>
       <c r="D25">
-        <v>5.169326411250938</v>
+        <v>6.172513077899824</v>
       </c>
       <c r="E25">
-        <v>7.718550749912137</v>
+        <v>8.253944077073317</v>
       </c>
       <c r="F25">
-        <v>26.01828918964359</v>
+        <v>21.62009485092856</v>
       </c>
       <c r="G25">
-        <v>2.122954202701092</v>
+        <v>23.96488546151181</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.563827297038274</v>
       </c>
       <c r="J25">
-        <v>6.101790954004147</v>
+        <v>9.569409500106607</v>
       </c>
       <c r="K25">
-        <v>11.17531033888056</v>
+        <v>15.49436895269288</v>
       </c>
       <c r="L25">
-        <v>6.398282531213684</v>
+        <v>6.117682287545719</v>
       </c>
       <c r="M25">
-        <v>10.58004219193905</v>
+        <v>11.11583010868857</v>
       </c>
       <c r="N25">
-        <v>14.15074839684772</v>
+        <v>6.873408865140964</v>
       </c>
       <c r="O25">
-        <v>19.48504544181668</v>
+        <v>10.12052523636814</v>
+      </c>
+      <c r="P25">
+        <v>13.08487488164251</v>
+      </c>
+      <c r="Q25">
+        <v>15.6938303346166</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.2952606639518</v>
+        <v>12.16018188597569</v>
       </c>
       <c r="C2">
-        <v>6.890911436074464</v>
+        <v>6.618690895401278</v>
       </c>
       <c r="D2">
-        <v>5.924162640786468</v>
+        <v>5.961592287155535</v>
       </c>
       <c r="E2">
-        <v>8.129283900986653</v>
+        <v>8.058640895908363</v>
       </c>
       <c r="F2">
-        <v>21.41501241429154</v>
+        <v>20.94737657362609</v>
       </c>
       <c r="G2">
-        <v>23.72581859493568</v>
+        <v>22.53920827331053</v>
       </c>
       <c r="H2">
-        <v>2.810734913683997</v>
+        <v>2.707061561820581</v>
       </c>
       <c r="J2">
-        <v>9.628422775641608</v>
+        <v>9.72824009999167</v>
       </c>
       <c r="K2">
-        <v>15.62175277053162</v>
+        <v>15.09520252605135</v>
       </c>
       <c r="L2">
-        <v>6.088635949177597</v>
+        <v>12.37933632223489</v>
       </c>
       <c r="M2">
-        <v>10.33515754350124</v>
+        <v>9.928612004808544</v>
       </c>
       <c r="N2">
-        <v>6.686946664017769</v>
+        <v>6.033770292483989</v>
       </c>
       <c r="O2">
-        <v>9.652577015358348</v>
+        <v>10.36335427099033</v>
       </c>
       <c r="P2">
-        <v>13.27791199905958</v>
+        <v>6.872339238803791</v>
       </c>
       <c r="Q2">
-        <v>15.71740788963582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.600389378602776</v>
+      </c>
+      <c r="R2">
+        <v>13.14215287405634</v>
+      </c>
+      <c r="S2">
+        <v>15.35160318479271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.52470278870813</v>
+        <v>11.38912086877634</v>
       </c>
       <c r="C3">
-        <v>6.780037378481269</v>
+        <v>6.434275343699518</v>
       </c>
       <c r="D3">
-        <v>5.751584214542953</v>
+        <v>5.789575955828588</v>
       </c>
       <c r="E3">
-        <v>8.043730118326843</v>
+        <v>7.981713676413785</v>
       </c>
       <c r="F3">
-        <v>21.2956188428845</v>
+        <v>20.85003099751946</v>
       </c>
       <c r="G3">
-        <v>23.59393714884113</v>
+        <v>22.48439656378687</v>
       </c>
       <c r="H3">
-        <v>2.986107525616194</v>
+        <v>2.87068646288752</v>
       </c>
       <c r="J3">
-        <v>9.675314571116822</v>
+        <v>9.746686344972879</v>
       </c>
       <c r="K3">
-        <v>15.7208876072951</v>
+        <v>15.20265592159332</v>
       </c>
       <c r="L3">
-        <v>6.067953563147605</v>
+        <v>12.52773153432188</v>
       </c>
       <c r="M3">
-        <v>9.768434897434727</v>
+        <v>9.974927314986953</v>
       </c>
       <c r="N3">
-        <v>6.557685715648732</v>
+        <v>6.01419740412198</v>
       </c>
       <c r="O3">
-        <v>9.32378434266465</v>
+        <v>9.80059598941151</v>
       </c>
       <c r="P3">
-        <v>13.41295179622418</v>
+        <v>6.743190374924576</v>
       </c>
       <c r="Q3">
-        <v>15.74861586794047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.272494900154925</v>
+      </c>
+      <c r="R3">
+        <v>13.26542661798378</v>
+      </c>
+      <c r="S3">
+        <v>15.39400834400522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.0303916514129</v>
+        <v>10.88661562009778</v>
       </c>
       <c r="C4">
-        <v>6.710597138719979</v>
+        <v>6.31874655182483</v>
       </c>
       <c r="D4">
-        <v>5.643867568623551</v>
+        <v>5.682377778044121</v>
       </c>
       <c r="E4">
-        <v>7.990713466530855</v>
+        <v>7.934040027684365</v>
       </c>
       <c r="F4">
-        <v>21.23180050476675</v>
+        <v>20.79852207290586</v>
       </c>
       <c r="G4">
-        <v>23.52737931450098</v>
+        <v>22.46609752014763</v>
       </c>
       <c r="H4">
-        <v>3.097833594039696</v>
+        <v>2.974957929755291</v>
       </c>
       <c r="J4">
-        <v>9.707398189724698</v>
+        <v>9.75979985808581</v>
       </c>
       <c r="K4">
-        <v>15.78783321626956</v>
+        <v>15.27353144440242</v>
       </c>
       <c r="L4">
-        <v>6.054749630841799</v>
+        <v>12.62279964350906</v>
       </c>
       <c r="M4">
-        <v>9.402233306004014</v>
+        <v>10.02154419006666</v>
       </c>
       <c r="N4">
-        <v>6.477062447822779</v>
+        <v>6.001681882188216</v>
       </c>
       <c r="O4">
-        <v>9.116801306015992</v>
+        <v>9.43705802129913</v>
       </c>
       <c r="P4">
-        <v>13.49800283473673</v>
+        <v>6.66304322764529</v>
       </c>
       <c r="Q4">
-        <v>15.77498348974952</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.065814327774993</v>
+      </c>
+      <c r="R4">
+        <v>13.34332698498089</v>
+      </c>
+      <c r="S4">
+        <v>15.42622593032865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.82254172471508</v>
+        <v>10.6745121639379</v>
       </c>
       <c r="C5">
-        <v>6.681971591981499</v>
+        <v>6.271141962820852</v>
       </c>
       <c r="D5">
-        <v>5.599589259037626</v>
+        <v>5.638356485823377</v>
       </c>
       <c r="E5">
-        <v>7.968993200766654</v>
+        <v>7.914507201405948</v>
       </c>
       <c r="F5">
-        <v>21.20815156324451</v>
+        <v>20.77957811355558</v>
       </c>
       <c r="G5">
-        <v>23.50380969256894</v>
+        <v>22.46238660713189</v>
       </c>
       <c r="H5">
-        <v>3.144391622429369</v>
+        <v>3.018416117846415</v>
       </c>
       <c r="J5">
-        <v>9.721284397741298</v>
+        <v>9.765587017097245</v>
       </c>
       <c r="K5">
-        <v>15.81660771580074</v>
+        <v>15.30362025817109</v>
       </c>
       <c r="L5">
-        <v>6.049240156513362</v>
+        <v>12.66254448401788</v>
       </c>
       <c r="M5">
-        <v>9.248486596108373</v>
+        <v>10.04503387603004</v>
       </c>
       <c r="N5">
-        <v>6.443919161759054</v>
+        <v>5.996454772021709</v>
       </c>
       <c r="O5">
-        <v>9.031280006334267</v>
+        <v>9.284459969867184</v>
       </c>
       <c r="P5">
-        <v>13.53320668060117</v>
+        <v>6.630199730234039</v>
       </c>
       <c r="Q5">
-        <v>15.78749531251789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.980351688758907</v>
+      </c>
+      <c r="R5">
+        <v>13.37563279585945</v>
+      </c>
+      <c r="S5">
+        <v>15.44086898673632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.78764355992424</v>
+        <v>10.6388494329685</v>
       </c>
       <c r="C6">
-        <v>6.677198968459905</v>
+        <v>6.263207098614654</v>
       </c>
       <c r="D6">
-        <v>5.59221551945104</v>
+        <v>5.631028247961636</v>
       </c>
       <c r="E6">
-        <v>7.965379786257435</v>
+        <v>7.911257576249693</v>
       </c>
       <c r="F6">
-        <v>21.20436615194295</v>
+        <v>20.77655511647329</v>
       </c>
       <c r="G6">
-        <v>23.5001083425628</v>
+        <v>22.46199321159795</v>
       </c>
       <c r="H6">
-        <v>3.152185004115063</v>
+        <v>3.025690989440136</v>
       </c>
       <c r="J6">
-        <v>9.723638772909684</v>
+        <v>9.766574567007174</v>
       </c>
       <c r="K6">
-        <v>15.82147493302253</v>
+        <v>15.30868863287277</v>
       </c>
       <c r="L6">
-        <v>6.048317483367391</v>
+        <v>12.66920499837928</v>
       </c>
       <c r="M6">
-        <v>9.222686593365601</v>
+        <v>10.04920312432863</v>
       </c>
       <c r="N6">
-        <v>6.438399128923246</v>
+        <v>5.995579096574081</v>
       </c>
       <c r="O6">
-        <v>9.017011742858601</v>
+        <v>9.258854691662108</v>
       </c>
       <c r="P6">
-        <v>13.53908538314137</v>
+        <v>6.624735960314442</v>
       </c>
       <c r="Q6">
-        <v>15.78967828634049</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.966089206649738</v>
+      </c>
+      <c r="R6">
+        <v>13.38103116985435</v>
+      </c>
+      <c r="S6">
+        <v>15.44339074588818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.02761437339485</v>
+        <v>10.88117522598285</v>
       </c>
       <c r="C7">
-        <v>6.710212393106596</v>
+        <v>6.314803036429127</v>
       </c>
       <c r="D7">
-        <v>5.643271886921079</v>
+        <v>5.68446165784011</v>
       </c>
       <c r="E7">
-        <v>7.990420998352079</v>
+        <v>7.934457795588487</v>
       </c>
       <c r="F7">
-        <v>21.23147206190956</v>
+        <v>20.78956369048184</v>
       </c>
       <c r="G7">
-        <v>23.52704715962438</v>
+        <v>22.53479994612816</v>
       </c>
       <c r="H7">
-        <v>3.09845731186617</v>
+        <v>2.976035679263948</v>
       </c>
       <c r="J7">
-        <v>9.707582197320518</v>
+        <v>9.730894699181404</v>
       </c>
       <c r="K7">
-        <v>15.78821527594909</v>
+        <v>15.26987606507432</v>
       </c>
       <c r="L7">
-        <v>6.054675851872713</v>
+        <v>12.61928476353867</v>
       </c>
       <c r="M7">
-        <v>9.400178009850311</v>
+        <v>10.01976717558947</v>
       </c>
       <c r="N7">
-        <v>6.476616597770001</v>
+        <v>6.001428912598961</v>
       </c>
       <c r="O7">
-        <v>9.115652537674695</v>
+        <v>9.43154657284887</v>
       </c>
       <c r="P7">
-        <v>13.49847538989093</v>
+        <v>6.6622763512105</v>
       </c>
       <c r="Q7">
-        <v>15.77514513429487</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.06368664624301</v>
+      </c>
+      <c r="R7">
+        <v>13.34370482899929</v>
+      </c>
+      <c r="S7">
+        <v>15.41999352430444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.03004303079724</v>
+        <v>11.89234703611903</v>
       </c>
       <c r="C8">
-        <v>6.85297355636148</v>
+        <v>6.544756898259714</v>
       </c>
       <c r="D8">
-        <v>5.865054877485062</v>
+        <v>5.911280886395201</v>
       </c>
       <c r="E8">
-        <v>8.099889882769249</v>
+        <v>8.03452042398164</v>
       </c>
       <c r="F8">
-        <v>21.37185973596118</v>
+        <v>20.88351909255287</v>
       </c>
       <c r="G8">
-        <v>23.67731198615692</v>
+        <v>22.74580540431302</v>
       </c>
       <c r="H8">
-        <v>2.870370372067363</v>
+        <v>2.764220231853401</v>
       </c>
       <c r="J8">
-        <v>9.643898109570198</v>
+        <v>9.639868412394094</v>
       </c>
       <c r="K8">
-        <v>15.65465221211159</v>
+        <v>15.11787731012815</v>
       </c>
       <c r="L8">
-        <v>6.081608337857656</v>
+        <v>12.41752789752385</v>
       </c>
       <c r="M8">
-        <v>10.14357135207941</v>
+        <v>9.932556457449905</v>
       </c>
       <c r="N8">
-        <v>6.642654328177031</v>
+        <v>6.026565733954235</v>
       </c>
       <c r="O8">
-        <v>9.540330733100514</v>
+        <v>10.16229526701682</v>
       </c>
       <c r="P8">
-        <v>13.32403511000155</v>
+        <v>6.826971402782863</v>
       </c>
       <c r="Q8">
-        <v>15.72664560144291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.485357540931179</v>
+      </c>
+      <c r="R8">
+        <v>13.18429554294644</v>
+      </c>
+      <c r="S8">
+        <v>15.34368660476432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.88057599192622</v>
+        <v>13.65509730190099</v>
       </c>
       <c r="C9">
-        <v>7.121509705696362</v>
+        <v>6.987562593483686</v>
       </c>
       <c r="D9">
-        <v>6.283728064927812</v>
+        <v>6.331183159585787</v>
       </c>
       <c r="E9">
-        <v>8.310415395027242</v>
+        <v>8.224514788217583</v>
       </c>
       <c r="F9">
-        <v>21.72356765895702</v>
+        <v>21.16645773222476</v>
       </c>
       <c r="G9">
-        <v>24.0892761264141</v>
+        <v>23.03160296643543</v>
       </c>
       <c r="H9">
-        <v>2.454674732942101</v>
+        <v>2.376783301981249</v>
       </c>
       <c r="J9">
-        <v>9.545873832077337</v>
+        <v>9.578553663755015</v>
       </c>
       <c r="K9">
-        <v>15.44255934453533</v>
+        <v>14.87460527047428</v>
       </c>
       <c r="L9">
-        <v>6.13050192460094</v>
+        <v>12.06763120973618</v>
       </c>
       <c r="M9">
-        <v>11.45448680296283</v>
+        <v>9.915965161934672</v>
       </c>
       <c r="N9">
-        <v>6.957144342895146</v>
+        <v>6.072656340612471</v>
       </c>
       <c r="O9">
-        <v>10.32836174532862</v>
+        <v>11.46278982068816</v>
       </c>
       <c r="P9">
-        <v>12.99854184921934</v>
+        <v>7.143098111163662</v>
       </c>
       <c r="Q9">
-        <v>15.69074513771128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.26922630321653</v>
+      </c>
+      <c r="R9">
+        <v>12.88923820086528</v>
+      </c>
+      <c r="S9">
+        <v>15.26831494499027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.07196331360386</v>
+        <v>14.77496389955974</v>
       </c>
       <c r="C10">
-        <v>7.329936290719857</v>
+        <v>7.298529504055617</v>
       </c>
       <c r="D10">
-        <v>6.541805956690314</v>
+        <v>6.604204832508842</v>
       </c>
       <c r="E10">
-        <v>8.399947181965143</v>
+        <v>8.305045914083427</v>
       </c>
       <c r="F10">
-        <v>21.94045726069578</v>
+        <v>21.28436528723374</v>
       </c>
       <c r="G10">
-        <v>24.35235307736007</v>
+        <v>23.61328671841614</v>
       </c>
       <c r="H10">
-        <v>2.194470904424946</v>
+        <v>2.138369907937159</v>
       </c>
       <c r="J10">
-        <v>9.472983991228277</v>
+        <v>9.370040282836761</v>
       </c>
       <c r="K10">
-        <v>15.2778267758995</v>
+        <v>14.66253334274601</v>
       </c>
       <c r="L10">
-        <v>6.153498253794362</v>
+        <v>11.78583919458832</v>
       </c>
       <c r="M10">
-        <v>12.31992752864644</v>
+        <v>9.946794675371907</v>
       </c>
       <c r="N10">
-        <v>7.120827910473125</v>
+        <v>6.094337348346948</v>
       </c>
       <c r="O10">
-        <v>10.81927860812096</v>
+        <v>12.30541256384494</v>
       </c>
       <c r="P10">
-        <v>12.77046300528813</v>
+        <v>7.306757447812466</v>
       </c>
       <c r="Q10">
-        <v>15.65638735725238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.75147950688644</v>
+      </c>
+      <c r="R10">
+        <v>12.68675605396492</v>
+      </c>
+      <c r="S10">
+        <v>15.16675331100056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.3380404614538</v>
+        <v>15.02149163247653</v>
       </c>
       <c r="C11">
-        <v>7.594639361322954</v>
+        <v>7.568985960470401</v>
       </c>
       <c r="D11">
-        <v>6.338951469934873</v>
+        <v>6.427820428063661</v>
       </c>
       <c r="E11">
-        <v>7.951082774194253</v>
+        <v>7.870792086633363</v>
       </c>
       <c r="F11">
-        <v>21.27260330303395</v>
+        <v>20.53838619664871</v>
       </c>
       <c r="G11">
-        <v>23.49201373789412</v>
+        <v>23.63884294582308</v>
       </c>
       <c r="H11">
-        <v>3.059350023508511</v>
+        <v>3.026220876655893</v>
       </c>
       <c r="J11">
-        <v>9.283909681528097</v>
+        <v>8.922274472273399</v>
       </c>
       <c r="K11">
-        <v>14.85077883675478</v>
+        <v>14.22262821549054</v>
       </c>
       <c r="L11">
-        <v>6.106592253358281</v>
+        <v>11.42240209724458</v>
       </c>
       <c r="M11">
-        <v>12.64244876465235</v>
+        <v>9.680375506937292</v>
       </c>
       <c r="N11">
-        <v>6.699704220801664</v>
+        <v>6.058579430326984</v>
       </c>
       <c r="O11">
-        <v>10.55351668881523</v>
+        <v>12.59128820583193</v>
       </c>
       <c r="P11">
-        <v>12.6901035862984</v>
+        <v>6.871452312559111</v>
       </c>
       <c r="Q11">
-        <v>15.2410121458381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.47697376852043</v>
+      </c>
+      <c r="R11">
+        <v>12.63425992638363</v>
+      </c>
+      <c r="S11">
+        <v>14.69481750140178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.31892826893045</v>
+        <v>15.00769192205213</v>
       </c>
       <c r="C12">
-        <v>7.786312151007466</v>
+        <v>7.750361924485281</v>
       </c>
       <c r="D12">
-        <v>6.110901698188746</v>
+        <v>6.209805943446165</v>
       </c>
       <c r="E12">
-        <v>7.626047896882025</v>
+        <v>7.555480852381677</v>
       </c>
       <c r="F12">
-        <v>20.65021275360784</v>
+        <v>19.90467953561321</v>
       </c>
       <c r="G12">
-        <v>22.69086879399757</v>
+        <v>23.2619473238184</v>
       </c>
       <c r="H12">
-        <v>4.354122253840346</v>
+        <v>4.331928196309717</v>
       </c>
       <c r="J12">
-        <v>9.13647159715021</v>
+        <v>8.704958033348335</v>
       </c>
       <c r="K12">
-        <v>14.52392724314368</v>
+        <v>13.91315065451592</v>
       </c>
       <c r="L12">
-        <v>6.109976516953757</v>
+        <v>11.19643010632994</v>
       </c>
       <c r="M12">
-        <v>12.73861653887107</v>
+        <v>9.449840805457455</v>
       </c>
       <c r="N12">
-        <v>6.333244721510646</v>
+        <v>6.071621933147237</v>
       </c>
       <c r="O12">
-        <v>10.22072455928605</v>
+        <v>12.67074228960771</v>
       </c>
       <c r="P12">
-        <v>12.67985027582693</v>
+        <v>6.493203636026784</v>
       </c>
       <c r="Q12">
-        <v>14.88996430939446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.14197894858249</v>
+      </c>
+      <c r="R12">
+        <v>12.64224267848023</v>
+      </c>
+      <c r="S12">
+        <v>14.33654808394313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.07889935398352</v>
+        <v>14.79766980506817</v>
       </c>
       <c r="C13">
-        <v>7.932890358051218</v>
+        <v>7.884900609520042</v>
       </c>
       <c r="D13">
-        <v>5.846050252362434</v>
+        <v>5.937503695125713</v>
       </c>
       <c r="E13">
-        <v>7.384428558677096</v>
+        <v>7.321288374467503</v>
       </c>
       <c r="F13">
-        <v>20.02184740167315</v>
+        <v>19.3337812773769</v>
       </c>
       <c r="G13">
-        <v>21.88041738029913</v>
+        <v>22.36381739142958</v>
       </c>
       <c r="H13">
-        <v>5.732754093192391</v>
+        <v>5.714214681698211</v>
       </c>
       <c r="J13">
-        <v>9.012233794351742</v>
+        <v>8.65551587966206</v>
       </c>
       <c r="K13">
-        <v>14.25579574089496</v>
+        <v>13.69208628251901</v>
       </c>
       <c r="L13">
-        <v>6.149832331934706</v>
+        <v>11.05454111561304</v>
       </c>
       <c r="M13">
-        <v>12.66939267238199</v>
+        <v>9.245571540854844</v>
       </c>
       <c r="N13">
-        <v>5.989069135764926</v>
+        <v>6.120191736320971</v>
       </c>
       <c r="O13">
-        <v>9.810020544996174</v>
+        <v>12.60566018264215</v>
       </c>
       <c r="P13">
-        <v>12.71993829687582</v>
+        <v>6.139245052455152</v>
       </c>
       <c r="Q13">
-        <v>14.5667212056029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.735871623214095</v>
+      </c>
+      <c r="R13">
+        <v>12.68945426051632</v>
+      </c>
+      <c r="S13">
+        <v>14.05653722301921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.80731098926673</v>
+        <v>14.55853884468665</v>
       </c>
       <c r="C14">
-        <v>8.016103526800151</v>
+        <v>7.959332739869546</v>
       </c>
       <c r="D14">
-        <v>5.642736133524314</v>
+        <v>5.721708138848641</v>
       </c>
       <c r="E14">
-        <v>7.268902175446179</v>
+        <v>7.211348883155538</v>
       </c>
       <c r="F14">
-        <v>19.58109747057553</v>
+        <v>18.96109348556182</v>
       </c>
       <c r="G14">
-        <v>21.31070959716818</v>
+        <v>21.51800943048883</v>
       </c>
       <c r="H14">
-        <v>6.721505395078198</v>
+        <v>6.703695468094469</v>
       </c>
       <c r="J14">
-        <v>8.936516224127518</v>
+        <v>8.683596663717948</v>
       </c>
       <c r="K14">
-        <v>14.09756513448322</v>
+        <v>13.57697026835966</v>
       </c>
       <c r="L14">
-        <v>6.198908105895706</v>
+        <v>10.98874115946937</v>
       </c>
       <c r="M14">
-        <v>12.54528144874384</v>
+        <v>9.118297665492236</v>
       </c>
       <c r="N14">
-        <v>5.765896733766067</v>
+        <v>6.174562024525842</v>
       </c>
       <c r="O14">
-        <v>9.484134952219696</v>
+        <v>12.49367048837345</v>
       </c>
       <c r="P14">
-        <v>12.77066919166891</v>
+        <v>5.910238601904477</v>
       </c>
       <c r="Q14">
-        <v>14.35484412025485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.416019900546461</v>
+      </c>
+      <c r="R14">
+        <v>12.7387839618313</v>
+      </c>
+      <c r="S14">
+        <v>13.89472046387808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.6927649493466</v>
+        <v>14.45694357824819</v>
       </c>
       <c r="C15">
-        <v>8.025181056821788</v>
+        <v>7.966209454176336</v>
       </c>
       <c r="D15">
-        <v>5.585533571039676</v>
+        <v>5.658477533571894</v>
       </c>
       <c r="E15">
-        <v>7.248553651619266</v>
+        <v>7.192751265039939</v>
       </c>
       <c r="F15">
-        <v>19.47484029538406</v>
+        <v>18.88295210058205</v>
       </c>
       <c r="G15">
-        <v>21.17331782705729</v>
+        <v>21.22545240905697</v>
       </c>
       <c r="H15">
-        <v>6.952931063528702</v>
+        <v>6.934743629128419</v>
       </c>
       <c r="J15">
-        <v>8.923627674324438</v>
+        <v>8.718523123889966</v>
       </c>
       <c r="K15">
-        <v>14.0721820916127</v>
+        <v>13.56619648739393</v>
       </c>
       <c r="L15">
-        <v>6.21192728259337</v>
+        <v>10.9868192399436</v>
       </c>
       <c r="M15">
-        <v>12.47912609690821</v>
+        <v>9.094533490814777</v>
       </c>
       <c r="N15">
-        <v>5.713515591163651</v>
+        <v>6.1886827445107</v>
       </c>
       <c r="O15">
-        <v>9.388392162686678</v>
+        <v>12.43447848895702</v>
       </c>
       <c r="P15">
-        <v>12.79206233595657</v>
+        <v>5.857002982319023</v>
       </c>
       <c r="Q15">
-        <v>14.31066132237571</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.322925411633676</v>
+      </c>
+      <c r="R15">
+        <v>12.75711201945193</v>
+      </c>
+      <c r="S15">
+        <v>13.87089453135212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.23595198810074</v>
+        <v>14.0437770778223</v>
       </c>
       <c r="C16">
-        <v>7.907119679327621</v>
+        <v>7.842205777730316</v>
       </c>
       <c r="D16">
-        <v>5.520949694087137</v>
+        <v>5.569391169488417</v>
       </c>
       <c r="E16">
-        <v>7.256383023437811</v>
+        <v>7.20310088243208</v>
       </c>
       <c r="F16">
-        <v>19.50243484668034</v>
+        <v>19.00704689778038</v>
       </c>
       <c r="G16">
-        <v>21.21134008347977</v>
+        <v>20.55506810954101</v>
       </c>
       <c r="H16">
-        <v>6.762052091915526</v>
+        <v>6.738303066393726</v>
       </c>
       <c r="J16">
-        <v>8.9797869783922</v>
+        <v>8.981148546123171</v>
       </c>
       <c r="K16">
-        <v>14.19888433319438</v>
+        <v>13.72800947363767</v>
       </c>
       <c r="L16">
-        <v>6.189118217948353</v>
+        <v>11.12360773812754</v>
       </c>
       <c r="M16">
-        <v>12.13413809811384</v>
+        <v>9.160984800256172</v>
       </c>
       <c r="N16">
-        <v>5.70923505138948</v>
+        <v>6.164721762844271</v>
       </c>
       <c r="O16">
-        <v>9.248477766646996</v>
+        <v>12.12312772978137</v>
       </c>
       <c r="P16">
-        <v>12.87320873646772</v>
+        <v>5.858193647219498</v>
       </c>
       <c r="Q16">
-        <v>14.38950149802137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.192795419222136</v>
+      </c>
+      <c r="R16">
+        <v>12.81605734600867</v>
+      </c>
+      <c r="S16">
+        <v>14.01805116812974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.02990468376004</v>
+        <v>13.85046694831704</v>
       </c>
       <c r="C17">
-        <v>7.77043479900619</v>
+        <v>7.698725505364153</v>
       </c>
       <c r="D17">
-        <v>5.581707831739927</v>
+        <v>5.621006968452061</v>
       </c>
       <c r="E17">
-        <v>7.315360105024295</v>
+        <v>7.259360344429225</v>
       </c>
       <c r="F17">
-        <v>19.75983501413945</v>
+        <v>19.2927597610827</v>
       </c>
       <c r="G17">
-        <v>21.54702998744047</v>
+        <v>20.59248579985266</v>
       </c>
       <c r="H17">
-        <v>6.061303794788658</v>
+        <v>6.031754470326744</v>
       </c>
       <c r="J17">
-        <v>9.063263155733472</v>
+        <v>9.154411381384215</v>
       </c>
       <c r="K17">
-        <v>14.3792492217475</v>
+        <v>13.91034864119016</v>
       </c>
       <c r="L17">
-        <v>6.14244066633195</v>
+        <v>11.26928215326383</v>
       </c>
       <c r="M17">
-        <v>11.93306056754064</v>
+        <v>9.272772281122178</v>
       </c>
       <c r="N17">
-        <v>5.820952597988347</v>
+        <v>6.114449623759905</v>
       </c>
       <c r="O17">
-        <v>9.318619884596863</v>
+        <v>11.93713582812468</v>
       </c>
       <c r="P17">
-        <v>12.90977710341127</v>
+        <v>5.976660059364835</v>
       </c>
       <c r="Q17">
-        <v>14.56303250550151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.266135280095211</v>
+      </c>
+      <c r="R17">
+        <v>12.83945347060408</v>
+      </c>
+      <c r="S17">
+        <v>14.21075237092881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.02363422724116</v>
+        <v>13.83552732857736</v>
       </c>
       <c r="C18">
-        <v>7.60726925210118</v>
+        <v>7.533682025315112</v>
       </c>
       <c r="D18">
-        <v>5.757749096489434</v>
+        <v>5.794796561788424</v>
       </c>
       <c r="E18">
-        <v>7.472269148550234</v>
+        <v>7.408152835535333</v>
       </c>
       <c r="F18">
-        <v>20.24093291305772</v>
+        <v>19.76533739988008</v>
       </c>
       <c r="G18">
-        <v>22.17065630874956</v>
+        <v>21.06827678651411</v>
       </c>
       <c r="H18">
-        <v>4.881498052010094</v>
+        <v>4.843613696728979</v>
       </c>
       <c r="J18">
-        <v>9.178763442133613</v>
+        <v>9.302330776657405</v>
       </c>
       <c r="K18">
-        <v>14.62777420457455</v>
+        <v>14.14066930847851</v>
       </c>
       <c r="L18">
-        <v>6.092367642359848</v>
+        <v>11.44830518326273</v>
       </c>
       <c r="M18">
-        <v>11.83803190854724</v>
+        <v>9.437225202378963</v>
       </c>
       <c r="N18">
-        <v>6.065864215370774</v>
+        <v>6.058062612733006</v>
       </c>
       <c r="O18">
-        <v>9.577469779296639</v>
+        <v>11.84860118039204</v>
       </c>
       <c r="P18">
-        <v>12.9161691829731</v>
+        <v>6.230183050738961</v>
       </c>
       <c r="Q18">
-        <v>14.8355458909548</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.524832295775177</v>
+      </c>
+      <c r="R18">
+        <v>12.83649875106523</v>
+      </c>
+      <c r="S18">
+        <v>14.47636145115201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.17846238989751</v>
+        <v>13.96720682488863</v>
       </c>
       <c r="C19">
-        <v>7.441969831586929</v>
+        <v>7.372014129400906</v>
       </c>
       <c r="D19">
-        <v>6.013004605898828</v>
+        <v>6.051461983783799</v>
       </c>
       <c r="E19">
-        <v>7.761384617452381</v>
+        <v>7.685462259441526</v>
       </c>
       <c r="F19">
-        <v>20.86743826818459</v>
+        <v>20.36100984261537</v>
       </c>
       <c r="G19">
-        <v>22.97927903662042</v>
+        <v>21.79867120587189</v>
       </c>
       <c r="H19">
-        <v>3.534602494544896</v>
+        <v>3.484011268164854</v>
       </c>
       <c r="J19">
-        <v>9.311793503739265</v>
+        <v>9.43639743479398</v>
       </c>
       <c r="K19">
-        <v>14.91825856670726</v>
+        <v>14.40008019770167</v>
       </c>
       <c r="L19">
-        <v>6.07639640788809</v>
+        <v>11.6462007703036</v>
       </c>
       <c r="M19">
-        <v>11.83713768598214</v>
+        <v>9.636393144606801</v>
       </c>
       <c r="N19">
-        <v>6.426649346378019</v>
+        <v>6.033384609078643</v>
       </c>
       <c r="O19">
-        <v>9.965753212732917</v>
+        <v>11.84925776688309</v>
       </c>
       <c r="P19">
-        <v>12.90302287408621</v>
+        <v>6.600466901107308</v>
       </c>
       <c r="Q19">
-        <v>15.16857524186579</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.911003488306399</v>
+      </c>
+      <c r="R19">
+        <v>12.81600368905386</v>
+      </c>
+      <c r="S19">
+        <v>14.78688745494724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.76728304634612</v>
+        <v>14.49589140699192</v>
       </c>
       <c r="C20">
-        <v>7.276559170552269</v>
+        <v>7.229981329855045</v>
       </c>
       <c r="D20">
-        <v>6.473211090237553</v>
+        <v>6.523110006325718</v>
       </c>
       <c r="E20">
-        <v>8.373770460802721</v>
+        <v>8.278737108808821</v>
       </c>
       <c r="F20">
-        <v>21.87630159623654</v>
+        <v>21.27658958311521</v>
       </c>
       <c r="G20">
-        <v>24.27299448678216</v>
+        <v>23.20478699291988</v>
       </c>
       <c r="H20">
-        <v>2.261164781453265</v>
+        <v>2.198010490157402</v>
       </c>
       <c r="J20">
-        <v>9.490134839186361</v>
+        <v>9.519166429071788</v>
       </c>
       <c r="K20">
-        <v>15.31704219407471</v>
+        <v>14.72900547170167</v>
       </c>
       <c r="L20">
-        <v>6.147038605074589</v>
+        <v>11.8671284681472</v>
       </c>
       <c r="M20">
-        <v>12.09860930024129</v>
+        <v>9.943456624462259</v>
       </c>
       <c r="N20">
-        <v>7.075658836596957</v>
+        <v>6.088749883926246</v>
       </c>
       <c r="O20">
-        <v>10.68997464507804</v>
+        <v>12.09990183930488</v>
       </c>
       <c r="P20">
-        <v>12.82967128571469</v>
+        <v>7.262451835304574</v>
       </c>
       <c r="Q20">
-        <v>15.66067540050284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.62760091096302</v>
+      </c>
+      <c r="R20">
+        <v>12.73834507973172</v>
+      </c>
+      <c r="S20">
+        <v>15.21190381779008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.68068724914466</v>
+        <v>15.31482200223468</v>
       </c>
       <c r="C21">
-        <v>7.404708484234241</v>
+        <v>7.377456106611977</v>
       </c>
       <c r="D21">
-        <v>6.723653626240451</v>
+        <v>6.830542473198779</v>
       </c>
       <c r="E21">
-        <v>8.538002369274</v>
+        <v>8.448108185327447</v>
       </c>
       <c r="F21">
-        <v>22.19648631244556</v>
+        <v>21.3527580392428</v>
       </c>
       <c r="G21">
-        <v>24.67679748633691</v>
+        <v>25.16907981304251</v>
       </c>
       <c r="H21">
-        <v>2.027358011127722</v>
+        <v>1.987512874624306</v>
       </c>
       <c r="J21">
-        <v>9.468355351643785</v>
+        <v>8.931259164272666</v>
       </c>
       <c r="K21">
-        <v>15.26603276017163</v>
+        <v>14.5553765567308</v>
       </c>
       <c r="L21">
-        <v>6.180609531788119</v>
+        <v>11.64658300750028</v>
       </c>
       <c r="M21">
-        <v>12.74276373036315</v>
+        <v>9.976449132643086</v>
       </c>
       <c r="N21">
-        <v>7.290101117525519</v>
+        <v>6.116693323754714</v>
       </c>
       <c r="O21">
-        <v>11.14188933931593</v>
+        <v>12.67633555193017</v>
       </c>
       <c r="P21">
-        <v>12.65537557239401</v>
+        <v>7.474199754260471</v>
       </c>
       <c r="Q21">
-        <v>15.719922607168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.05587513117455</v>
+      </c>
+      <c r="R21">
+        <v>12.58707297013118</v>
+      </c>
+      <c r="S21">
+        <v>15.09056360092163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.23679059056514</v>
+        <v>15.81120003340177</v>
       </c>
       <c r="C22">
-        <v>7.496476917812435</v>
+        <v>7.477379789969102</v>
       </c>
       <c r="D22">
-        <v>6.865437257927984</v>
+        <v>7.012572082550663</v>
       </c>
       <c r="E22">
-        <v>8.612828217908106</v>
+        <v>8.52925288651527</v>
       </c>
       <c r="F22">
-        <v>22.36903693632173</v>
+        <v>21.35432492412149</v>
       </c>
       <c r="G22">
-        <v>24.89653082657435</v>
+        <v>26.55048654493754</v>
       </c>
       <c r="H22">
-        <v>1.890282973878075</v>
+        <v>1.865191087100859</v>
       </c>
       <c r="J22">
-        <v>9.448311348503237</v>
+        <v>8.581076889376423</v>
       </c>
       <c r="K22">
-        <v>15.21821894476598</v>
+        <v>14.42122820024133</v>
       </c>
       <c r="L22">
-        <v>6.196668035058941</v>
+        <v>11.49134298328065</v>
       </c>
       <c r="M22">
-        <v>13.1436858559554</v>
+        <v>9.989736700714934</v>
       </c>
       <c r="N22">
-        <v>7.398042322221658</v>
+        <v>6.129969092381346</v>
       </c>
       <c r="O22">
-        <v>11.4015643438707</v>
+        <v>13.03145268939963</v>
       </c>
       <c r="P22">
-        <v>12.5437204908319</v>
+        <v>7.579763820241409</v>
       </c>
       <c r="Q22">
-        <v>15.74265046563087</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.29912395260699</v>
+      </c>
+      <c r="R22">
+        <v>12.49293599592599</v>
+      </c>
+      <c r="S22">
+        <v>14.9847983018289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.94235416939352</v>
+        <v>15.55339995129499</v>
       </c>
       <c r="C23">
-        <v>7.447646188492812</v>
+        <v>7.431986157313437</v>
       </c>
       <c r="D23">
-        <v>6.790048023182725</v>
+        <v>6.909399397793827</v>
       </c>
       <c r="E23">
-        <v>8.572950909104382</v>
+        <v>8.483797059812199</v>
       </c>
       <c r="F23">
-        <v>22.27612232400723</v>
+        <v>21.37508745060119</v>
       </c>
       <c r="G23">
-        <v>24.77792837521085</v>
+        <v>25.61911495208596</v>
       </c>
       <c r="H23">
-        <v>1.963160835016638</v>
+        <v>1.929421592712744</v>
       </c>
       <c r="J23">
-        <v>9.45868095643171</v>
+        <v>8.811927860944335</v>
       </c>
       <c r="K23">
-        <v>15.24310941726217</v>
+        <v>14.50317966051838</v>
       </c>
       <c r="L23">
-        <v>6.188130732692284</v>
+        <v>11.58070156922467</v>
       </c>
       <c r="M23">
-        <v>12.93125862495906</v>
+        <v>9.990869665391449</v>
       </c>
       <c r="N23">
-        <v>7.34060834497475</v>
+        <v>6.123181691153648</v>
       </c>
       <c r="O23">
-        <v>11.26362733431924</v>
+        <v>12.85023399442581</v>
       </c>
       <c r="P23">
-        <v>12.60317147897272</v>
+        <v>7.524264442947199</v>
       </c>
       <c r="Q23">
-        <v>15.72978213048158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.1722068223878</v>
+      </c>
+      <c r="R23">
+        <v>12.54216279173852</v>
+      </c>
+      <c r="S23">
+        <v>15.05783852200202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.7750565905767</v>
+        <v>14.50198248496811</v>
       </c>
       <c r="C24">
-        <v>7.259517055301698</v>
+        <v>7.212255664056788</v>
       </c>
       <c r="D24">
-        <v>6.498496158365845</v>
+        <v>6.548194876038496</v>
       </c>
       <c r="E24">
-        <v>8.420666640988188</v>
+        <v>8.324412086903495</v>
       </c>
       <c r="F24">
-        <v>21.94221495155629</v>
+        <v>21.3406577910651</v>
       </c>
       <c r="G24">
-        <v>24.35769710161383</v>
+        <v>23.27192033433163</v>
       </c>
       <c r="H24">
-        <v>2.245443490168375</v>
+        <v>2.18211168445648</v>
       </c>
       <c r="J24">
-        <v>9.505040089626103</v>
+        <v>9.537752878860339</v>
       </c>
       <c r="K24">
-        <v>15.35090863315235</v>
+        <v>14.76005280053689</v>
       </c>
       <c r="L24">
-        <v>6.155049005467649</v>
+        <v>11.89180795215292</v>
       </c>
       <c r="M24">
-        <v>12.09266607081618</v>
+        <v>9.965720903582026</v>
       </c>
       <c r="N24">
-        <v>7.119330224119789</v>
+        <v>6.095661447305729</v>
       </c>
       <c r="O24">
-        <v>10.72711027462047</v>
+        <v>12.09453742605234</v>
       </c>
       <c r="P24">
-        <v>12.83149472378481</v>
+        <v>7.307121453281881</v>
       </c>
       <c r="Q24">
-        <v>15.69697745598201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.6646463708917</v>
+      </c>
+      <c r="R24">
+        <v>12.7389278223659</v>
+      </c>
+      <c r="S24">
+        <v>15.24680933921499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.40336157641866</v>
+        <v>13.20578853263362</v>
       </c>
       <c r="C25">
-        <v>7.050165712873448</v>
+        <v>6.874757503958246</v>
       </c>
       <c r="D25">
-        <v>6.172513077899824</v>
+        <v>6.215971584560759</v>
       </c>
       <c r="E25">
-        <v>8.253944077073317</v>
+        <v>8.172536002102145</v>
       </c>
       <c r="F25">
-        <v>21.62009485092856</v>
+        <v>21.09463283972647</v>
       </c>
       <c r="G25">
-        <v>23.96488546151181</v>
+        <v>22.8425712690977</v>
       </c>
       <c r="H25">
-        <v>2.563827297038274</v>
+        <v>2.477882232355284</v>
       </c>
       <c r="J25">
-        <v>9.569409500106607</v>
+        <v>9.633315413345372</v>
       </c>
       <c r="K25">
-        <v>15.49436895269288</v>
+        <v>14.94163515843052</v>
       </c>
       <c r="L25">
-        <v>6.117682287545719</v>
+        <v>12.16366127948029</v>
       </c>
       <c r="M25">
-        <v>11.11583010868857</v>
+        <v>9.908527316653917</v>
       </c>
       <c r="N25">
-        <v>6.873408865140964</v>
+        <v>6.060805744879889</v>
       </c>
       <c r="O25">
-        <v>10.12052523636814</v>
+        <v>11.1310693883803</v>
       </c>
       <c r="P25">
-        <v>13.08487488164251</v>
+        <v>7.059030130364204</v>
       </c>
       <c r="Q25">
-        <v>15.6938303346166</v>
+        <v>10.06399031086599</v>
+      </c>
+      <c r="R25">
+        <v>12.96706377450192</v>
+      </c>
+      <c r="S25">
+        <v>15.29205752800848</v>
       </c>
     </row>
   </sheetData>
